--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF308"/>
+  <dimension ref="A1:AF311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26580,6 +26580,294 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>356.7445454545455</v>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="n">
+        <v>302.5085714285714</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="n">
+        <v>345.1866666666667</v>
+      </c>
+      <c r="H309" t="n">
+        <v>354.4485714285714</v>
+      </c>
+      <c r="I309" t="n">
+        <v>358.77</v>
+      </c>
+      <c r="J309" t="n">
+        <v>339.82</v>
+      </c>
+      <c r="K309" t="n">
+        <v>346.6245454545455</v>
+      </c>
+      <c r="L309" t="n">
+        <v>335.57</v>
+      </c>
+      <c r="M309" t="n">
+        <v>327.9299999999999</v>
+      </c>
+      <c r="N309" t="n">
+        <v>330.33</v>
+      </c>
+      <c r="O309" t="n">
+        <v>328.9611111111111</v>
+      </c>
+      <c r="P309" t="n">
+        <v>323.1785714285714</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>314.49</v>
+      </c>
+      <c r="R309" t="n">
+        <v>311.92</v>
+      </c>
+      <c r="S309" t="n">
+        <v>321.7911111111111</v>
+      </c>
+      <c r="T309" t="n">
+        <v>339.52</v>
+      </c>
+      <c r="U309" t="n">
+        <v>349.02</v>
+      </c>
+      <c r="V309" t="n">
+        <v>348.14</v>
+      </c>
+      <c r="W309" t="n">
+        <v>340.8711111111111</v>
+      </c>
+      <c r="X309" t="n">
+        <v>350.04</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>351.9366666666667</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>355.0311111111111</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>350.36</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>343.35</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>349.7485714285714</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>349.2985714285714</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>344.05</v>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>391.6745454545455</v>
+      </c>
+      <c r="C310" t="n">
+        <v>356.24</v>
+      </c>
+      <c r="D310" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="G310" t="n">
+        <v>356.3966666666667</v>
+      </c>
+      <c r="H310" t="n">
+        <v>356.08</v>
+      </c>
+      <c r="I310" t="n">
+        <v>373.68</v>
+      </c>
+      <c r="J310" t="n">
+        <v>363.59</v>
+      </c>
+      <c r="K310" t="n">
+        <v>356.6845454545455</v>
+      </c>
+      <c r="L310" t="n">
+        <v>339.92</v>
+      </c>
+      <c r="M310" t="n">
+        <v>336.14</v>
+      </c>
+      <c r="N310" t="n">
+        <v>344.56</v>
+      </c>
+      <c r="O310" t="n">
+        <v>347.8877777777778</v>
+      </c>
+      <c r="P310" t="n">
+        <v>324.48</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>306.63</v>
+      </c>
+      <c r="R310" t="n">
+        <v>317.65</v>
+      </c>
+      <c r="S310" t="n">
+        <v>337.5777777777778</v>
+      </c>
+      <c r="T310" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="U310" t="n">
+        <v>349.82</v>
+      </c>
+      <c r="V310" t="n">
+        <v>344.32</v>
+      </c>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="n">
+        <v>387.37</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>372.8966666666667</v>
+      </c>
+      <c r="Z310" t="inlineStr"/>
+      <c r="AA310" t="n">
+        <v>362.65</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>342.57</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>360.86</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>365.83</v>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="n">
+        <v>357.18</v>
+      </c>
+      <c r="D311" t="n">
+        <v>356.98</v>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="n">
+        <v>334.2942857142857</v>
+      </c>
+      <c r="G311" t="n">
+        <v>358.45</v>
+      </c>
+      <c r="H311" t="n">
+        <v>345.3242857142857</v>
+      </c>
+      <c r="I311" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="J311" t="n">
+        <v>351.09</v>
+      </c>
+      <c r="K311" t="n">
+        <v>349.9581818181818</v>
+      </c>
+      <c r="L311" t="n">
+        <v>348.9</v>
+      </c>
+      <c r="M311" t="n">
+        <v>350.63</v>
+      </c>
+      <c r="N311" t="n">
+        <v>347.91</v>
+      </c>
+      <c r="O311" t="n">
+        <v>339.4</v>
+      </c>
+      <c r="P311" t="n">
+        <v>342.7742857142857</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>335.7</v>
+      </c>
+      <c r="R311" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="S311" t="n">
+        <v>335.53</v>
+      </c>
+      <c r="T311" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="U311" t="n">
+        <v>343.61</v>
+      </c>
+      <c r="V311" t="n">
+        <v>348.36</v>
+      </c>
+      <c r="W311" t="n">
+        <v>351.24</v>
+      </c>
+      <c r="X311" t="inlineStr"/>
+      <c r="Y311" t="n">
+        <v>338.97</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>344.66</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>338.42</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>349.5242857142857</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>355.0342857142857</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>348.76</v>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26591,7 +26879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29849,6 +30137,36 @@
       </c>
       <c r="B325" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -30017,28 +30335,28 @@
         <v>0.0603</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1742228396900013</v>
+        <v>-0.1358289447188649</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005882953539079638</v>
+        <v>0.003545362716540379</v>
       </c>
       <c r="M2" t="n">
-        <v>12.88007769855195</v>
+        <v>12.99441314566871</v>
       </c>
       <c r="N2" t="n">
-        <v>263.1028215179424</v>
+        <v>268.0363440389216</v>
       </c>
       <c r="O2" t="n">
-        <v>16.22044455364718</v>
+        <v>16.37181553887417</v>
       </c>
       <c r="P2" t="n">
-        <v>355.4647165690148</v>
+        <v>355.082381571499</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30094,28 +30412,28 @@
         <v>0.0583</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2796666185608107</v>
+        <v>-0.2654006865969089</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02160912139680504</v>
+        <v>0.01975501170018157</v>
       </c>
       <c r="M3" t="n">
-        <v>10.36030367060997</v>
+        <v>10.33931752590515</v>
       </c>
       <c r="N3" t="n">
-        <v>181.9664110297436</v>
+        <v>181.0424269926555</v>
       </c>
       <c r="O3" t="n">
-        <v>13.48949261572664</v>
+        <v>13.45520074144773</v>
       </c>
       <c r="P3" t="n">
-        <v>355.0309993613391</v>
+        <v>354.8895686525234</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30171,28 +30489,28 @@
         <v>0.0557</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4173276310895032</v>
+        <v>-0.3805448481341237</v>
       </c>
       <c r="J4" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04363172894715261</v>
+        <v>0.03643721553308166</v>
       </c>
       <c r="M4" t="n">
-        <v>10.87597821854624</v>
+        <v>10.95675808342464</v>
       </c>
       <c r="N4" t="n">
-        <v>194.0151493738035</v>
+        <v>196.5085158030137</v>
       </c>
       <c r="O4" t="n">
-        <v>13.92893209739367</v>
+        <v>14.01814951421955</v>
       </c>
       <c r="P4" t="n">
-        <v>353.539285139913</v>
+        <v>353.179555293996</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30248,28 +30566,28 @@
         <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5510556837082893</v>
+        <v>-0.5890486036465375</v>
       </c>
       <c r="J5" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04280286751182216</v>
+        <v>0.04820787850879416</v>
       </c>
       <c r="M5" t="n">
-        <v>15.02920350025971</v>
+        <v>15.15967059108632</v>
       </c>
       <c r="N5" t="n">
-        <v>356.2930577620253</v>
+        <v>361.3936352967116</v>
       </c>
       <c r="O5" t="n">
-        <v>18.87572668169428</v>
+        <v>19.01035600131443</v>
       </c>
       <c r="P5" t="n">
-        <v>352.769248714822</v>
+        <v>353.1333597045416</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30325,28 +30643,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.011827837412419</v>
+        <v>-0.9798131680180482</v>
       </c>
       <c r="J6" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09656808454592114</v>
+        <v>0.09213145170080239</v>
       </c>
       <c r="M6" t="n">
-        <v>18.04151360676129</v>
+        <v>18.02517075132571</v>
       </c>
       <c r="N6" t="n">
-        <v>523.4945022076836</v>
+        <v>522.1883353565109</v>
       </c>
       <c r="O6" t="n">
-        <v>22.88000223355941</v>
+        <v>22.85144055320169</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1100119826038</v>
+        <v>353.8094164214427</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30402,28 +30720,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.683651307239411</v>
+        <v>-0.6383184565575168</v>
       </c>
       <c r="J7" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05090340348499789</v>
+        <v>0.04542848469812855</v>
       </c>
       <c r="M7" t="n">
-        <v>16.58692418158882</v>
+        <v>16.58003798563522</v>
       </c>
       <c r="N7" t="n">
-        <v>472.3845821134733</v>
+        <v>470.0544164629373</v>
       </c>
       <c r="O7" t="n">
-        <v>21.73441009352389</v>
+        <v>21.68073837448663</v>
       </c>
       <c r="P7" t="n">
-        <v>353.4335087334954</v>
+        <v>353.0005884767733</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30479,28 +30797,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4218765294746029</v>
+        <v>-0.3905361062709341</v>
       </c>
       <c r="J8" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02322732267351735</v>
+        <v>0.02032128547213874</v>
       </c>
       <c r="M8" t="n">
-        <v>15.55731460183988</v>
+        <v>15.5326080494278</v>
       </c>
       <c r="N8" t="n">
-        <v>385.5673820524348</v>
+        <v>382.9581339923279</v>
       </c>
       <c r="O8" t="n">
-        <v>19.63586978089931</v>
+        <v>19.56931613501933</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5335274657749</v>
+        <v>349.2211540399524</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -30556,28 +30874,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2198620062080001</v>
+        <v>-0.1784960400179489</v>
       </c>
       <c r="J9" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006303103843781299</v>
+        <v>0.004188115690292205</v>
       </c>
       <c r="M9" t="n">
-        <v>16.17872298679581</v>
+        <v>16.21634858875278</v>
       </c>
       <c r="N9" t="n">
-        <v>391.8038801732777</v>
+        <v>393.7924866927728</v>
       </c>
       <c r="O9" t="n">
-        <v>19.79403648004311</v>
+        <v>19.84420536813638</v>
       </c>
       <c r="P9" t="n">
-        <v>343.8793932676943</v>
+        <v>343.4677484471158</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -30633,28 +30951,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3137045637944752</v>
+        <v>-0.2831167180984552</v>
       </c>
       <c r="J10" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01977190622563885</v>
+        <v>0.01635261681785161</v>
       </c>
       <c r="M10" t="n">
-        <v>12.3839289682402</v>
+        <v>12.38630086779322</v>
       </c>
       <c r="N10" t="n">
-        <v>248.8732889807205</v>
+        <v>248.8095608012178</v>
       </c>
       <c r="O10" t="n">
-        <v>15.77571833485628</v>
+        <v>15.77369838691034</v>
       </c>
       <c r="P10" t="n">
-        <v>346.8925917861777</v>
+        <v>346.5869519789759</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -30710,28 +31028,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.224036109682311</v>
+        <v>-0.1961203643221417</v>
       </c>
       <c r="J11" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01003302377950321</v>
+        <v>0.007834555548264621</v>
       </c>
       <c r="M11" t="n">
-        <v>12.77386766625007</v>
+        <v>12.75113747464558</v>
       </c>
       <c r="N11" t="n">
-        <v>256.187571363689</v>
+        <v>254.8262392949107</v>
       </c>
       <c r="O11" t="n">
-        <v>16.005860531808</v>
+        <v>15.96327783680127</v>
       </c>
       <c r="P11" t="n">
-        <v>345.0155445825675</v>
+        <v>344.7393915514862</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -30787,28 +31105,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1992963075726581</v>
+        <v>-0.1910244523692125</v>
       </c>
       <c r="J12" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008715661780630435</v>
+        <v>0.008174909586068813</v>
       </c>
       <c r="M12" t="n">
-        <v>11.51608994298031</v>
+        <v>11.43753403142331</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1752087732571</v>
+        <v>227.9652021538244</v>
       </c>
       <c r="O12" t="n">
-        <v>15.17152625062018</v>
+        <v>15.0985165547422</v>
       </c>
       <c r="P12" t="n">
-        <v>342.8006161350718</v>
+        <v>342.7175547903759</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -30864,28 +31182,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3433419719239971</v>
+        <v>-0.3359262550714518</v>
       </c>
       <c r="J13" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02626143285551341</v>
+        <v>0.02563532434438709</v>
       </c>
       <c r="M13" t="n">
-        <v>11.07778479585892</v>
+        <v>11.03198472509497</v>
       </c>
       <c r="N13" t="n">
-        <v>220.9741818654688</v>
+        <v>219.3837944408474</v>
       </c>
       <c r="O13" t="n">
-        <v>14.86520036412119</v>
+        <v>14.81161012317187</v>
       </c>
       <c r="P13" t="n">
-        <v>343.8489747104023</v>
+        <v>343.7740183349696</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -30941,28 +31259,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4023178890772546</v>
+        <v>-0.3871756731026583</v>
       </c>
       <c r="J14" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03676452125997109</v>
+        <v>0.03485214881980625</v>
       </c>
       <c r="M14" t="n">
-        <v>11.43074885725389</v>
+        <v>11.39155020744695</v>
       </c>
       <c r="N14" t="n">
-        <v>214.6227214716154</v>
+        <v>212.7997794912668</v>
       </c>
       <c r="O14" t="n">
-        <v>14.65000755875626</v>
+        <v>14.58765846499248</v>
       </c>
       <c r="P14" t="n">
-        <v>345.4812252932097</v>
+        <v>345.328671391506</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -31018,28 +31336,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4908263322338483</v>
+        <v>-0.4838359336387831</v>
       </c>
       <c r="J15" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04856509722480973</v>
+        <v>0.04837480277359463</v>
       </c>
       <c r="M15" t="n">
-        <v>12.11472879792514</v>
+        <v>12.04263182416807</v>
       </c>
       <c r="N15" t="n">
-        <v>246.3774636215808</v>
+        <v>243.6133865663121</v>
       </c>
       <c r="O15" t="n">
-        <v>15.6964156297411</v>
+        <v>15.60811925141246</v>
       </c>
       <c r="P15" t="n">
-        <v>348.59516</v>
+        <v>348.5261400017416</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -31095,28 +31413,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5985653353463115</v>
+        <v>-0.5908970965994622</v>
       </c>
       <c r="J16" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01253891969930554</v>
+        <v>0.01256984265900163</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5486303453033</v>
+        <v>19.36143417630978</v>
       </c>
       <c r="N16" t="n">
-        <v>1367.804061445875</v>
+        <v>1348.393702551992</v>
       </c>
       <c r="O16" t="n">
-        <v>36.98383513706867</v>
+        <v>36.72048069609101</v>
       </c>
       <c r="P16" t="n">
-        <v>342.5811374370122</v>
+        <v>342.5013867893979</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -31172,28 +31490,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4866849076420742</v>
+        <v>-0.5062695218792123</v>
       </c>
       <c r="J17" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01010620738182499</v>
+        <v>0.01121409867790113</v>
       </c>
       <c r="M17" t="n">
-        <v>17.96834471329355</v>
+        <v>17.93143785302476</v>
       </c>
       <c r="N17" t="n">
-        <v>1169.062359712646</v>
+        <v>1155.133180377535</v>
       </c>
       <c r="O17" t="n">
-        <v>34.19155392363216</v>
+        <v>33.98725026208408</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1685316682778</v>
+        <v>338.3627228594468</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -31249,28 +31567,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5555558144709258</v>
+        <v>-0.573794603195616</v>
       </c>
       <c r="J18" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0195708529907006</v>
+        <v>0.02138474488923714</v>
       </c>
       <c r="M18" t="n">
-        <v>14.98121170812902</v>
+        <v>14.92787955597552</v>
       </c>
       <c r="N18" t="n">
-        <v>798.0721049278787</v>
+        <v>788.202808883917</v>
       </c>
       <c r="O18" t="n">
-        <v>28.25016999821202</v>
+        <v>28.0749498465076</v>
       </c>
       <c r="P18" t="n">
-        <v>340.8152883623396</v>
+        <v>340.9941192413012</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -31326,28 +31644,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5138435409011548</v>
+        <v>-0.5007045283975063</v>
       </c>
       <c r="J19" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K19" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01572371993960264</v>
+        <v>0.01536852635490626</v>
       </c>
       <c r="M19" t="n">
-        <v>15.16824519054132</v>
+        <v>15.04766842597675</v>
       </c>
       <c r="N19" t="n">
-        <v>880.2241211004414</v>
+        <v>868.1286836614098</v>
       </c>
       <c r="O19" t="n">
-        <v>29.66857126827043</v>
+        <v>29.46402354841256</v>
       </c>
       <c r="P19" t="n">
-        <v>339.8737947839073</v>
+        <v>339.7482797215408</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -31403,28 +31721,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3709175741122884</v>
+        <v>-0.3336129824014724</v>
       </c>
       <c r="J20" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K20" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03302218811612612</v>
+        <v>0.02725126172569614</v>
       </c>
       <c r="M20" t="n">
-        <v>11.3655758568703</v>
+        <v>11.40642342812193</v>
       </c>
       <c r="N20" t="n">
-        <v>218.7052246640503</v>
+        <v>218.7174267491486</v>
       </c>
       <c r="O20" t="n">
-        <v>14.78868569765583</v>
+        <v>14.78909823989105</v>
       </c>
       <c r="P20" t="n">
-        <v>341.180933585313</v>
+        <v>340.8277503626631</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -31480,28 +31798,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.236193899356048</v>
+        <v>-0.1987388676508449</v>
       </c>
       <c r="J21" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K21" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01467131425598756</v>
+        <v>0.01055284906646359</v>
       </c>
       <c r="M21" t="n">
-        <v>10.71919102890289</v>
+        <v>10.75668502721586</v>
       </c>
       <c r="N21" t="n">
-        <v>200.1029459071914</v>
+        <v>200.2383798165999</v>
       </c>
       <c r="O21" t="n">
-        <v>14.14577484294131</v>
+        <v>14.15056111313611</v>
       </c>
       <c r="P21" t="n">
-        <v>338.8871450439304</v>
+        <v>338.5257736676744</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -31557,28 +31875,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1614751123216915</v>
+        <v>-0.1290724165604895</v>
       </c>
       <c r="J22" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K22" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007285774222092423</v>
+        <v>0.004735051641735932</v>
       </c>
       <c r="M22" t="n">
-        <v>10.60009823097162</v>
+        <v>10.61720985836321</v>
       </c>
       <c r="N22" t="n">
-        <v>188.3341993505639</v>
+        <v>187.9660146659718</v>
       </c>
       <c r="O22" t="n">
-        <v>13.72349078589569</v>
+        <v>13.71006982717345</v>
       </c>
       <c r="P22" t="n">
-        <v>338.1762344947379</v>
+        <v>337.8634718294464</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -31634,28 +31952,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2942457879755814</v>
+        <v>-0.2710598754747706</v>
       </c>
       <c r="J23" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K23" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01982365448050005</v>
+        <v>0.01700090995511938</v>
       </c>
       <c r="M23" t="n">
-        <v>11.59998630100755</v>
+        <v>11.61240588594958</v>
       </c>
       <c r="N23" t="n">
-        <v>230.184242174004</v>
+        <v>230.2536954936615</v>
       </c>
       <c r="O23" t="n">
-        <v>15.17182395672992</v>
+        <v>15.17411267566119</v>
       </c>
       <c r="P23" t="n">
-        <v>338.7018878061293</v>
+        <v>338.4808983496206</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -31711,28 +32029,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4008793375912002</v>
+        <v>-0.3328920232835107</v>
       </c>
       <c r="J24" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K24" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02631432101331121</v>
+        <v>0.01769858222452281</v>
       </c>
       <c r="M24" t="n">
-        <v>14.00791412202419</v>
+        <v>14.22530071270612</v>
       </c>
       <c r="N24" t="n">
-        <v>310.4435923534976</v>
+        <v>324.08616181209</v>
       </c>
       <c r="O24" t="n">
-        <v>17.61940953475733</v>
+        <v>18.00239322457128</v>
       </c>
       <c r="P24" t="n">
-        <v>339.3433855759868</v>
+        <v>338.6909712746277</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -31788,28 +32106,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3064317016525955</v>
+        <v>-0.2547905078256882</v>
       </c>
       <c r="J25" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K25" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01509757918393073</v>
+        <v>0.01052596264099204</v>
       </c>
       <c r="M25" t="n">
-        <v>14.43273220319857</v>
+        <v>14.5005899176927</v>
       </c>
       <c r="N25" t="n">
-        <v>333.4560509763851</v>
+        <v>336.7184586913477</v>
       </c>
       <c r="O25" t="n">
-        <v>18.26077903530912</v>
+        <v>18.34988988226763</v>
       </c>
       <c r="P25" t="n">
-        <v>342.6913271660408</v>
+        <v>342.2058256138582</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -31865,28 +32183,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1724521503557421</v>
+        <v>-0.1539634149431046</v>
       </c>
       <c r="J26" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K26" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005724765446162072</v>
+        <v>0.004621575849658277</v>
       </c>
       <c r="M26" t="n">
-        <v>12.86613855111297</v>
+        <v>12.84979339385355</v>
       </c>
       <c r="N26" t="n">
-        <v>274.4555546473497</v>
+        <v>273.5148256249765</v>
       </c>
       <c r="O26" t="n">
-        <v>16.56670017376272</v>
+        <v>16.53828363600578</v>
       </c>
       <c r="P26" t="n">
-        <v>342.4521742918506</v>
+        <v>342.2755420716152</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -31942,28 +32260,28 @@
         <v>0.0454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.231289342584621</v>
+        <v>-0.1938057946378353</v>
       </c>
       <c r="J27" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K27" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01011216609171439</v>
+        <v>0.00720244966444572</v>
       </c>
       <c r="M27" t="n">
-        <v>12.53986692896278</v>
+        <v>12.59191708048756</v>
       </c>
       <c r="N27" t="n">
-        <v>280.1984244138923</v>
+        <v>280.3032006903465</v>
       </c>
       <c r="O27" t="n">
-        <v>16.73912854403993</v>
+        <v>16.742257932858</v>
       </c>
       <c r="P27" t="n">
-        <v>343.8448801099795</v>
+        <v>343.4871896747357</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -32019,28 +32337,28 @@
         <v>0.043</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3226338356495269</v>
+        <v>-0.2932498347842125</v>
       </c>
       <c r="J28" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K28" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02197425293434085</v>
+        <v>0.01855896441950877</v>
       </c>
       <c r="M28" t="n">
-        <v>12.5437410964921</v>
+        <v>12.52582026262001</v>
       </c>
       <c r="N28" t="n">
-        <v>247.5442592721054</v>
+        <v>246.1347524815415</v>
       </c>
       <c r="O28" t="n">
-        <v>15.73353931167763</v>
+        <v>15.68868230545642</v>
       </c>
       <c r="P28" t="n">
-        <v>337.6626743580217</v>
+        <v>337.3831669546119</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -32096,28 +32414,28 @@
         <v>0.0371</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4079972203715914</v>
+        <v>-0.3631936366292032</v>
       </c>
       <c r="J29" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K29" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03102765024434617</v>
+        <v>0.02474798244435061</v>
       </c>
       <c r="M29" t="n">
-        <v>13.33245953712095</v>
+        <v>13.37693902821495</v>
       </c>
       <c r="N29" t="n">
-        <v>279.1532550710979</v>
+        <v>282.5625780382202</v>
       </c>
       <c r="O29" t="n">
-        <v>16.70788002922866</v>
+        <v>16.80959779525436</v>
       </c>
       <c r="P29" t="n">
-        <v>351.5254739616312</v>
+        <v>351.0988007873102</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -32173,28 +32491,28 @@
         <v>0.0381</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.666236220711059</v>
+        <v>-0.6303792727280519</v>
       </c>
       <c r="J30" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K30" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07177646745589017</v>
+        <v>0.06562886053832762</v>
       </c>
       <c r="M30" t="n">
-        <v>13.99062950638902</v>
+        <v>13.974971242613</v>
       </c>
       <c r="N30" t="n">
-        <v>306.3917019717251</v>
+        <v>305.4359493257319</v>
       </c>
       <c r="O30" t="n">
-        <v>17.50404815954655</v>
+        <v>17.47672593267206</v>
       </c>
       <c r="P30" t="n">
-        <v>356.9318361622696</v>
+        <v>356.584693984245</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -32250,28 +32568,28 @@
         <v>0.0449</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6544509092969233</v>
+        <v>-0.6181816444523662</v>
       </c>
       <c r="J31" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K31" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08887789530574364</v>
+        <v>0.08085980352597644</v>
       </c>
       <c r="M31" t="n">
-        <v>12.27073892754069</v>
+        <v>12.28632594242011</v>
       </c>
       <c r="N31" t="n">
-        <v>232.1768485080581</v>
+        <v>232.7219019485454</v>
       </c>
       <c r="O31" t="n">
-        <v>15.23735044251651</v>
+        <v>15.25522539815605</v>
       </c>
       <c r="P31" t="n">
-        <v>355.4356130370342</v>
+        <v>355.0853795870185</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -32308,7 +32626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF308"/>
+  <dimension ref="A1:AF311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71548,6 +71866,456 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-37.91169985084749,174.7726622190735</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-37.90952192648254,174.7724020139736</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-37.90830042039255,174.77138048863029</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-37.90765435003766,174.77099964518314</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-37.90699383023985,174.77067194770157</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-37.90626527320575,174.77059457801292</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-37.90561200029045,174.77024016979686</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-37.90490651279802,174.77007786685428</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-37.90421100129547,174.76987883310483</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-37.90354483397147,174.7695718030698</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-37.90286764282405,174.76930531304865</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-37.902177543223175,174.76908629726404</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-37.90147894252121,174.76889853824224</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-37.90080522853982,174.76864784452832</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-37.90015749091605,174.76829259116505</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-37.89952309803199,174.76784949962112</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-37.89886711857027,174.76749593123435</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-37.898184004097885,174.76725531913164</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-37.89748416682833,174.76708422297284</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-37.896827292300856,174.7667340164008</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>-37.896151808664456,174.76646134719599</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>-37.89547953425554,174.76617567371545</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr">
+        <is>
+          <t>-37.894786816454726,174.7659744469507</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>-37.894087937149564,174.76579865320014</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>-37.89342433942787,174.76547704986683</t>
+        </is>
+      </c>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>-37.89274271177886,174.7652299202266</t>
+        </is>
+      </c>
+      <c r="AE309" t="inlineStr">
+        <is>
+          <t>-37.89204844950793,174.76503497052406</t>
+        </is>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-37.911801968359825,174.77228645710017</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-37.911025259749806,174.77238643474988</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-37.91039581408476,174.7719445074263</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-37.90900713171016,174.77153817315323</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-37.90833319194656,174.77125990146783</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-37.907659119354044,174.77098209587098</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-37.907037417686524,174.77051156169182</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-37.906334761609024,174.7703388879126</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-37.905641409166364,174.77013195687522</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-37.90491922933853,174.77003107542475</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-37.90423500183381,174.76979052177563</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-37.903586432621566,174.7694187384665</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-37.90292297090631,174.76910173054503</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-37.90218134766719,174.7690722987304</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-37.90145596555993,174.76898308183343</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>-37.90082110576882,174.76858584513903</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>-37.900198782658244,174.76812080961722</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>-37.89956413086645,174.76767865023888</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>-37.89886920940035,174.76748722560623</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>-37.89817402043599,174.7672968881415</t>
+        </is>
+      </c>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>-37.89692523683265,174.7663279469306</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>-37.896206970648144,174.76623341469028</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr"/>
+      <c r="AA310" t="inlineStr">
+        <is>
+          <t>-37.894819160616436,174.76584079992915</t>
+        </is>
+      </c>
+      <c r="AB310" t="inlineStr">
+        <is>
+          <t>-37.89408588439015,174.76580713519232</t>
+        </is>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>-37.893505136506484,174.76514319410893</t>
+        </is>
+      </c>
+      <c r="AD310" t="inlineStr">
+        <is>
+          <t>-37.89277313795921,174.7651041992442</t>
+        </is>
+      </c>
+      <c r="AE310" t="inlineStr">
+        <is>
+          <t>-37.892105767512334,174.7647981330394</t>
+        </is>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-37.91102800782927,174.7723763227308</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-37.91035430090429,174.7720972622902</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-37.908941717544614,174.77177887297537</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-37.908339194692054,174.77123781353066</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-37.90762767606417,174.77109779527694</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-37.906923551973854,174.77093054417972</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-37.90629821960534,174.77047334848214</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-37.90562174567882,174.77020431070835</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-37.904945480897794,174.76993448065056</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-37.904277360725295,174.76963465912561</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-37.903596225669624,174.76938270425765</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-37.90289815873693,174.76919302838544</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-37.90223482686874,174.76887552006283</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-37.90154094494022,174.7686703993472</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-37.900857820006344,174.7684424782073</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>-37.90019342648684,174.76814309238424</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>-37.89952644339322,174.76783557050695</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>-37.89885297931523,174.76755480303075</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>-37.898184579072726,174.76725292510454</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>-37.89751127761966,174.76697139475866</t>
+        </is>
+      </c>
+      <c r="X311" t="inlineStr"/>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>-37.89611768311075,174.7666023548814</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>-37.89545223988015,174.76628845477487</t>
+        </is>
+      </c>
+      <c r="AA311" t="inlineStr">
+        <is>
+          <t>-37.89478534267326,174.7659805366412</t>
+        </is>
+      </c>
+      <c r="AB311" t="inlineStr">
+        <is>
+          <t>-37.89407496264723,174.7658522637323</t>
+        </is>
+      </c>
+      <c r="AC311" t="inlineStr">
+        <is>
+          <t>-37.893423749170786,174.7654794888084</t>
+        </is>
+      </c>
+      <c r="AD311" t="inlineStr">
+        <is>
+          <t>-37.89275780645915,174.76516754908675</t>
+        </is>
+      </c>
+      <c r="AE311" t="inlineStr">
+        <is>
+          <t>-37.89206084476344,174.76498375363502</t>
+        </is>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -30180,7 +30180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30271,35 +30271,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30358,27 +30363,28 @@
       <c r="P2" t="n">
         <v>355.082381571499</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.77649986210852 -37.91065684432252, 174.766648229943 -37.91333404303418)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7764998621085</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.91065684432252</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.766648229943</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.91333404303418</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7715740460258</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.91199544367835</v>
       </c>
     </row>
@@ -30435,27 +30441,28 @@
       <c r="P3" t="n">
         <v>354.8895686525234</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.77621861844796 -37.90998373477746, 174.76636703691054 -37.912660925118864)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.776218618448</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.90998373477746</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7663670369105</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.91266092511886</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7712928276792</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.91132232994816</v>
       </c>
     </row>
@@ -30512,27 +30519,28 @@
       <c r="P4" t="n">
         <v>353.179555293996</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.77593737478773 -37.909310619073835, 174.7660858438775 -37.91198780104529)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7759373747877</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.90931061907384</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7660858438775</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.91198780104529</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7710116093326</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.91064921005956</v>
       </c>
     </row>
@@ -30589,27 +30597,28 @@
       <c r="P5" t="n">
         <v>353.1333597045416</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.77565613112776 -37.908637497211586, 174.76580465084385 -37.91131467081357)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7756561311278</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.90863749721159</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7658046508438</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.91131467081357</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7707303909858</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.90997608401258</v>
       </c>
     </row>
@@ -30666,27 +30675,28 @@
       <c r="P6" t="n">
         <v>353.8094164214427</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7753748874681 -37.90796436919086, 174.7655234578095 -37.91064153442362)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7753748874681</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.90796436919086</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7655234578095</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.91064153442362</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7704491726388</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.90930295180723</v>
       </c>
     </row>
@@ -30743,27 +30753,28 @@
       <c r="P7" t="n">
         <v>353.0005884767733</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.77509364380884 -37.90729123501172, 174.7652422647745 -37.90996839187545)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7750936438088</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.90729123501172</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7652422647745</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.90996839187545</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7701679542917</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.90862981344358</v>
       </c>
     </row>
@@ -30820,27 +30831,28 @@
       <c r="P8" t="n">
         <v>349.2211540399524</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7748124001498 -37.90661809467408, 174.76496107173895 -37.90929524316925)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7748124001498</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.90661809467408</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.764961071739</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.90929524316925</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7698867359444</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.90795666892166</v>
       </c>
     </row>
@@ -30897,27 +30909,28 @@
       <c r="P9" t="n">
         <v>343.4677484471158</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7745311564912 -37.905944948178046, 174.76467987870274 -37.908622088304966)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7745311564912</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.90594494817805</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7646798787027</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.90862208830497</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.769605517597</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.90728351824151</v>
       </c>
     </row>
@@ -30974,27 +30987,28 @@
       <c r="P10" t="n">
         <v>346.5869519789759</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.77424991283277 -37.90527179552357, 174.76439868566598 -37.90794892728279)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7742499128328</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.90527179552357</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.764398685666</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.90794892728279</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7693242992494</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.90661036140318</v>
       </c>
     </row>
@@ -31051,27 +31065,28 @@
       <c r="P11" t="n">
         <v>344.7393915514862</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.7739686691747 -37.904598636710816, 174.7641174926285 -37.9072757601025)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7739686691747</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.90459863671082</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7641174926285</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.9072757601025</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7690430809016</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.90593719840666</v>
       </c>
     </row>
@@ -31128,27 +31143,28 @@
       <c r="P12" t="n">
         <v>342.7175547903759</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.77368742551693 -37.90392547173978, 174.7638362995904 -37.90660258676419)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7736874255169</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.90392547173978</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7638362995904</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.90660258676419</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7687618625537</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.90526402925198</v>
       </c>
     </row>
@@ -31205,27 +31221,28 @@
       <c r="P13" t="n">
         <v>343.7740183349696</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.77340618185957 -37.90325230061047, 174.7635551065517 -37.90592940726802)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.7734061818596</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.90325230061047</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7635551065517</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.90592940726802</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.7684806442056</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.90459085393924</v>
       </c>
     </row>
@@ -31282,27 +31299,28 @@
       <c r="P14" t="n">
         <v>345.328671391506</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.77312493820241 -37.90257912332292, 174.7632739135124 -37.90525622161402)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7731249382024</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.90257912332292</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7632739135124</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.90525622161402</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7681994258574</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.90391767246847</v>
       </c>
     </row>
@@ -31359,27 +31377,28 @@
       <c r="P15" t="n">
         <v>348.5261400017416</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.77284369454563 -37.90190593987719, 174.76299272047243 -37.90458302980214)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.7728436945456</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.90190593987719</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.7629927204724</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.90458302980214</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.767918207509</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.90324448483966</v>
       </c>
     </row>
@@ -31436,27 +31455,28 @@
       <c r="P16" t="n">
         <v>342.5013867893979</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.77256245088918 -37.901232750273294, 174.76271152743183 -37.90390983183248)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.7725624508892</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.90123275027329</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.7627115274318</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.90390983183248</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.7676369891605</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.90257129105289</v>
       </c>
     </row>
@@ -31513,27 +31533,28 @@
       <c r="P17" t="n">
         <v>338.3627228594468</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.77228120723296 -37.900559554511304, 174.76243033439064 -37.90323662770503)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.772281207233</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.9005595545113</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.7624303343906</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.90323662770503</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.7673557708118</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.90189809110817</v>
       </c>
     </row>
@@ -31590,27 +31611,28 @@
       <c r="P18" t="n">
         <v>340.9941192413012</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.77202281992575 -37.899940882572025, 174.76211320219363 -37.90247844904932)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.7720228199258</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.89994088257203</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.7621132021936</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.90247844904932</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.7670680110597</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.90120966581067</v>
       </c>
     </row>
@@ -31667,27 +31689,28 @@
       <c r="P19" t="n">
         <v>339.7482797215408</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.7717940955958 -37.899315757609806, 174.76182818089842 -37.90171116111935)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.7717940955958</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.89931575760981</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.7618281808984</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.90171116111935</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.7668111382471</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.90051345936457</v>
       </c>
     </row>
@@ -31744,27 +31767,28 @@
       <c r="P20" t="n">
         <v>340.8277503626631</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.7715441505044 -37.898635683772376, 174.76157758021665 -37.901029231643236)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.7715441505044</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.89863568377238</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.7615775802167</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.90102923164324</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.7665608653605</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.8998324577078</v>
       </c>
     </row>
@@ -31821,27 +31845,28 @@
       <c r="P21" t="n">
         <v>338.5257736676744</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.77129392990747 -37.897954881327756, 174.7613274131064 -37.90034842146671)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.7712939299075</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.89795488132776</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.7613274131064</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.90034842146671</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.7663106715069</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.89915165139723</v>
       </c>
     </row>
@@ -31898,27 +31923,28 @@
       <c r="P22" t="n">
         <v>337.8634718294464</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.771043709311 -37.897274072585795, 174.76107724599535 -37.89966760499297)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.771043709311</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.89727407258579</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.7610772459954</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.89966760499297</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.7660604776532</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.89847083878938</v>
       </c>
     </row>
@@ -31975,27 +32001,28 @@
       <c r="P23" t="n">
         <v>338.4808983496206</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.77079333573568 -37.896592856371505, 174.76082731962953 -37.89898740738195)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.7707933357357</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-37.89659285637151</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.7608273196295</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-37.89898740738195</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.7658103276826</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-37.89779013187673</v>
       </c>
     </row>
@@ -32052,27 +32079,28 @@
       <c r="P24" t="n">
         <v>338.6909712746277</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.77054163788992 -37.895908808409644, 174.76057889943576 -37.89831173837566)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.7705416378899</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-37.89590880840964</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.7605788994358</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-37.89831173837566</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.7655602686629</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-37.89711027339266</v>
       </c>
     </row>
@@ -32129,27 +32157,28 @@
       <c r="P25" t="n">
         <v>342.2058256138582</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.77028847939843 -37.895225526115816, 174.76032863324124 -37.89763580661394)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.7702884793984</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-37.89522552611582</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.7603286332412</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-37.89763580661394</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.7653085563198</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-37.89643066636488</v>
       </c>
     </row>
@@ -32206,27 +32235,28 @@
       <c r="P26" t="n">
         <v>342.2755420716152</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.77003642401093 -37.89454511376546, 174.76007663117346 -37.89695538649485)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.7700364240109</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-37.89454511376546</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.7600766311735</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-37.89695538649485</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.7650565275922</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-37.89575025013016</v>
       </c>
     </row>
@@ -32283,27 +32313,28 @@
       <c r="P27" t="n">
         <v>343.4871896747357</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.7697843686238 -37.89386469512568, 174.75982462910488 -37.89627496008664)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.7697843686238</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-37.89386469512568</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.7598246291049</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-37.89627496008664</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.7648044988644</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-37.89506982760616</v>
       </c>
     </row>
@@ -32360,27 +32391,28 @@
       <c r="P28" t="n">
         <v>337.3831669546119</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.76953231323702 -37.89318427019653, 174.75957262703562 -37.89559452738938)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.769532313237</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-37.89318427019653</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.7595726270356</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-37.89559452738938</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.7645524701363</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-37.89438939879295</v>
       </c>
     </row>
@@ -32437,27 +32469,28 @@
       <c r="P29" t="n">
         <v>351.0988007873102</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.7692802578506 -37.89250383897795, 174.75932062496565 -37.894914088403205)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.7692802578506</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-37.89250383897795</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.7593206249657</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-37.8949140884032</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.7643004414081</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-37.89370896369058</v>
       </c>
     </row>
@@ -32514,27 +32547,28 @@
       <c r="P30" t="n">
         <v>356.584693984245</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (174.76902820246448 -37.8918234014701, 174.75906862289497 -37.89423364312803)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>174.7690282024645</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-37.8918234014701</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>174.759068622895</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-37.89423364312803</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>174.7640484126797</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-37.89302852229906</v>
       </c>
     </row>
@@ -32591,27 +32625,28 @@
       <c r="P31" t="n">
         <v>355.0853795870185</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (174.76877614707877 -37.891142957673026, 174.75881662082352 -37.8935531915638)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>174.7687761470788</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-37.89114295767303</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>174.7588166208235</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-37.8935531915638</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>174.7637963839512</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-37.89234807461841</v>
       </c>
     </row>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF311"/>
+  <dimension ref="A1:AF314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26778,7 +26778,9 @@
           <t>2025-01-30 22:06:08+00:00</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="n">
+        <v>346.6781818181818</v>
+      </c>
       <c r="C311" t="n">
         <v>357.18</v>
       </c>
@@ -26840,7 +26842,9 @@
       <c r="W311" t="n">
         <v>351.24</v>
       </c>
-      <c r="X311" t="inlineStr"/>
+      <c r="X311" t="n">
+        <v>343.05</v>
+      </c>
       <c r="Y311" t="n">
         <v>338.97</v>
       </c>
@@ -26865,6 +26869,262 @@
       <c r="AF311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>381.6681818181818</v>
+      </c>
+      <c r="C312" t="n">
+        <v>380.33</v>
+      </c>
+      <c r="D312" t="n">
+        <v>369.0100000000001</v>
+      </c>
+      <c r="E312" t="n">
+        <v>346.9414285714286</v>
+      </c>
+      <c r="F312" t="n">
+        <v>347.6314285714286</v>
+      </c>
+      <c r="G312" t="n">
+        <v>354.74</v>
+      </c>
+      <c r="H312" t="n">
+        <v>351.3214285714286</v>
+      </c>
+      <c r="I312" t="n">
+        <v>352.08</v>
+      </c>
+      <c r="J312" t="n">
+        <v>352.95</v>
+      </c>
+      <c r="K312" t="n">
+        <v>353.2581818181818</v>
+      </c>
+      <c r="L312" t="n">
+        <v>349.56</v>
+      </c>
+      <c r="M312" t="n">
+        <v>348.21</v>
+      </c>
+      <c r="N312" t="n">
+        <v>349.55</v>
+      </c>
+      <c r="O312" t="n">
+        <v>350.3233333333333</v>
+      </c>
+      <c r="P312" t="n">
+        <v>345.9614285714285</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>346.91</v>
+      </c>
+      <c r="R312" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="S312" t="n">
+        <v>349.7333333333333</v>
+      </c>
+      <c r="T312" t="n">
+        <v>361.63</v>
+      </c>
+      <c r="U312" t="n">
+        <v>363.35</v>
+      </c>
+      <c r="V312" t="n">
+        <v>361.54</v>
+      </c>
+      <c r="W312" t="n">
+        <v>365.0333333333333</v>
+      </c>
+      <c r="X312" t="n">
+        <v>372.07</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>371.33</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>369.5033333333333</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>367.3214285714286</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>364.2214285714285</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>366.48</v>
+      </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>379.8018181818182</v>
+      </c>
+      <c r="C313" t="n">
+        <v>387.78</v>
+      </c>
+      <c r="D313" t="n">
+        <v>398.94</v>
+      </c>
+      <c r="E313" t="n">
+        <v>380.2385714285714</v>
+      </c>
+      <c r="F313" t="n">
+        <v>363.5885714285714</v>
+      </c>
+      <c r="G313" t="n">
+        <v>338.4433333333333</v>
+      </c>
+      <c r="H313" t="n">
+        <v>318.3985714285715</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
+      <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr"/>
+      <c r="Y313" t="inlineStr"/>
+      <c r="Z313" t="inlineStr"/>
+      <c r="AA313" t="inlineStr"/>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr"/>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>362.57</v>
+      </c>
+      <c r="C314" t="n">
+        <v>381.19</v>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="n">
+        <v>368.6842857142857</v>
+      </c>
+      <c r="G314" t="n">
+        <v>375.91</v>
+      </c>
+      <c r="H314" t="n">
+        <v>348.9442857142857</v>
+      </c>
+      <c r="I314" t="n">
+        <v>339.27</v>
+      </c>
+      <c r="J314" t="n">
+        <v>351.64</v>
+      </c>
+      <c r="K314" t="n">
+        <v>347.28</v>
+      </c>
+      <c r="L314" t="n">
+        <v>355.45</v>
+      </c>
+      <c r="M314" t="n">
+        <v>357.11</v>
+      </c>
+      <c r="N314" t="n">
+        <v>358.59</v>
+      </c>
+      <c r="O314" t="n">
+        <v>355.3133333333333</v>
+      </c>
+      <c r="P314" t="n">
+        <v>356.8442857142857</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>358.17</v>
+      </c>
+      <c r="R314" t="n">
+        <v>355.76</v>
+      </c>
+      <c r="S314" t="n">
+        <v>358.1833333333333</v>
+      </c>
+      <c r="T314" t="n">
+        <v>356.01</v>
+      </c>
+      <c r="U314" t="n">
+        <v>361.79</v>
+      </c>
+      <c r="V314" t="n">
+        <v>362.29</v>
+      </c>
+      <c r="W314" t="n">
+        <v>365.3933333333333</v>
+      </c>
+      <c r="X314" t="n">
+        <v>354.69</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>360.3433333333333</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>367.42</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>348.06</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>363.1942857142857</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>363.7942857142857</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>359.65</v>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26879,7 +27139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30167,6 +30427,36 @@
       </c>
       <c r="B328" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -30340,28 +30630,28 @@
         <v>0.0603</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1358289447188649</v>
+        <v>-0.08407491825598692</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003545362716540379</v>
+        <v>0.001366527437892562</v>
       </c>
       <c r="M2" t="n">
-        <v>12.99441314566871</v>
+        <v>13.11934073663249</v>
       </c>
       <c r="N2" t="n">
-        <v>268.0363440389216</v>
+        <v>271.1166547517935</v>
       </c>
       <c r="O2" t="n">
-        <v>16.37181553887417</v>
+        <v>16.46562038769853</v>
       </c>
       <c r="P2" t="n">
-        <v>355.082381571499</v>
+        <v>354.5611614823163</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30418,28 +30708,28 @@
         <v>0.0583</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2654006865969089</v>
+        <v>-0.1810982899362765</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01975501170018157</v>
+        <v>0.008795967869281718</v>
       </c>
       <c r="M3" t="n">
-        <v>10.33931752590515</v>
+        <v>10.61613637319728</v>
       </c>
       <c r="N3" t="n">
-        <v>181.0424269926555</v>
+        <v>193.7511460349841</v>
       </c>
       <c r="O3" t="n">
-        <v>13.45520074144773</v>
+        <v>13.91945207380607</v>
       </c>
       <c r="P3" t="n">
-        <v>354.8895686525234</v>
+        <v>354.0460200152466</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30496,28 +30786,28 @@
         <v>0.0557</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3805448481341237</v>
+        <v>-0.3104461543749467</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03643721553308166</v>
+        <v>0.02317029484033362</v>
       </c>
       <c r="M4" t="n">
-        <v>10.95675808342464</v>
+        <v>11.19882473628875</v>
       </c>
       <c r="N4" t="n">
-        <v>196.5085158030137</v>
+        <v>210.501133810323</v>
       </c>
       <c r="O4" t="n">
-        <v>14.01814951421955</v>
+        <v>14.50865720217839</v>
       </c>
       <c r="P4" t="n">
-        <v>353.179555293996</v>
+        <v>352.4878186237373</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30574,28 +30864,28 @@
         <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5890486036465375</v>
+        <v>-0.5366990811388906</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04820787850879416</v>
+        <v>0.04018195220800125</v>
       </c>
       <c r="M5" t="n">
-        <v>15.15967059108632</v>
+        <v>15.23862646484261</v>
       </c>
       <c r="N5" t="n">
-        <v>361.3936352967116</v>
+        <v>367.0762985541996</v>
       </c>
       <c r="O5" t="n">
-        <v>19.01035600131443</v>
+        <v>19.15923533323289</v>
       </c>
       <c r="P5" t="n">
-        <v>353.1333597045416</v>
+        <v>352.624841885191</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30652,28 +30942,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9798131680180482</v>
+        <v>-0.8932767815589009</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09213145170080239</v>
+        <v>0.07785288749939312</v>
       </c>
       <c r="M6" t="n">
-        <v>18.02517075132571</v>
+        <v>18.19658609567808</v>
       </c>
       <c r="N6" t="n">
-        <v>522.1883353565109</v>
+        <v>529.3344751503367</v>
       </c>
       <c r="O6" t="n">
-        <v>22.85144055320169</v>
+        <v>23.0072700499285</v>
       </c>
       <c r="P6" t="n">
-        <v>353.8094164214427</v>
+        <v>352.9872663388505</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30730,28 +31020,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6383184565575168</v>
+        <v>-0.5875748606779262</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04542848469812855</v>
+        <v>0.03908211456415212</v>
       </c>
       <c r="M7" t="n">
-        <v>16.58003798563522</v>
+        <v>16.59730966593689</v>
       </c>
       <c r="N7" t="n">
-        <v>470.0544164629373</v>
+        <v>471.913334151495</v>
       </c>
       <c r="O7" t="n">
-        <v>21.68073837448663</v>
+        <v>21.72356633132541</v>
       </c>
       <c r="P7" t="n">
-        <v>353.0005884767733</v>
+        <v>352.5105262998528</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30808,28 +31098,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3905361062709341</v>
+        <v>-0.3901636533533306</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02032128547213874</v>
+        <v>0.02060888908976377</v>
       </c>
       <c r="M8" t="n">
-        <v>15.5326080494278</v>
+        <v>15.51510784529209</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9581339923279</v>
+        <v>380.9264768209224</v>
       </c>
       <c r="O8" t="n">
-        <v>19.56931613501933</v>
+        <v>19.5173378517902</v>
       </c>
       <c r="P8" t="n">
-        <v>349.2211540399524</v>
+        <v>349.2178694301386</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30886,28 +31176,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1784960400179489</v>
+        <v>-0.1679203779301653</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004188115690292205</v>
+        <v>0.003760539303007682</v>
       </c>
       <c r="M9" t="n">
-        <v>16.21634858875278</v>
+        <v>16.13344795951502</v>
       </c>
       <c r="N9" t="n">
-        <v>393.7924866927728</v>
+        <v>391.185277883559</v>
       </c>
       <c r="O9" t="n">
-        <v>19.84420536813638</v>
+        <v>19.77840433107684</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4677484471158</v>
+        <v>343.361618328126</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30964,28 +31254,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2831167180984552</v>
+        <v>-0.2622434270362712</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K10" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01635261681785161</v>
+        <v>0.01421278444566776</v>
       </c>
       <c r="M10" t="n">
-        <v>12.38630086779322</v>
+        <v>12.38870459191655</v>
       </c>
       <c r="N10" t="n">
-        <v>248.8095608012178</v>
+        <v>248.0633885749584</v>
       </c>
       <c r="O10" t="n">
-        <v>15.77369838691034</v>
+        <v>15.75002820870358</v>
       </c>
       <c r="P10" t="n">
-        <v>346.5869519789759</v>
+        <v>346.3764679735762</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31042,28 +31332,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1961203643221417</v>
+        <v>-0.1795557653155852</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K11" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007834555548264621</v>
+        <v>0.006655162471414622</v>
       </c>
       <c r="M11" t="n">
-        <v>12.75113747464558</v>
+        <v>12.72646189783417</v>
       </c>
       <c r="N11" t="n">
-        <v>254.8262392949107</v>
+        <v>253.6596909923366</v>
       </c>
       <c r="O11" t="n">
-        <v>15.96327783680127</v>
+        <v>15.92669742891905</v>
       </c>
       <c r="P11" t="n">
-        <v>344.7393915514862</v>
+        <v>344.5740548318658</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31120,28 +31410,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1910244523692125</v>
+        <v>-0.1691786319297755</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008174909586068813</v>
+        <v>0.006471216684249437</v>
       </c>
       <c r="M12" t="n">
-        <v>11.43753403142331</v>
+        <v>11.45301572289353</v>
       </c>
       <c r="N12" t="n">
-        <v>227.9652021538244</v>
+        <v>227.8815035263436</v>
       </c>
       <c r="O12" t="n">
-        <v>15.0985165547422</v>
+        <v>15.09574455024805</v>
       </c>
       <c r="P12" t="n">
-        <v>342.7175547903759</v>
+        <v>342.4966394488281</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31198,28 +31488,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3359262550714518</v>
+        <v>-0.3076674601770501</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K13" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02563532434438709</v>
+        <v>0.02168122780302051</v>
       </c>
       <c r="M13" t="n">
-        <v>11.03198472509497</v>
+        <v>11.06717290639054</v>
       </c>
       <c r="N13" t="n">
-        <v>219.3837944408474</v>
+        <v>220.1858744473209</v>
       </c>
       <c r="O13" t="n">
-        <v>14.81161012317187</v>
+        <v>14.83866147761721</v>
       </c>
       <c r="P13" t="n">
-        <v>343.7740183349696</v>
+        <v>343.4874298869057</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31276,28 +31566,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3871756731026583</v>
+        <v>-0.3537806492770317</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K14" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03485214881980625</v>
+        <v>0.02933113590571734</v>
       </c>
       <c r="M14" t="n">
-        <v>11.39155020744695</v>
+        <v>11.44824339040529</v>
       </c>
       <c r="N14" t="n">
-        <v>212.7997794912668</v>
+        <v>214.1378978589198</v>
       </c>
       <c r="O14" t="n">
-        <v>14.58765846499248</v>
+        <v>14.63345133107429</v>
       </c>
       <c r="P14" t="n">
-        <v>345.328671391506</v>
+        <v>344.9895728762771</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31354,28 +31644,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4838359336387831</v>
+        <v>-0.4528791867438705</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K15" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04837480277359463</v>
+        <v>0.04295132761294429</v>
       </c>
       <c r="M15" t="n">
-        <v>12.04263182416807</v>
+        <v>12.08596829654403</v>
       </c>
       <c r="N15" t="n">
-        <v>243.6133865663121</v>
+        <v>243.888334964337</v>
       </c>
       <c r="O15" t="n">
-        <v>15.60811925141246</v>
+        <v>15.61692463208865</v>
       </c>
       <c r="P15" t="n">
-        <v>348.5261400017416</v>
+        <v>348.2182437499047</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31432,28 +31722,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5908970965994622</v>
+        <v>-0.5443206594213146</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K16" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01256984265900163</v>
+        <v>0.01084605504574832</v>
       </c>
       <c r="M16" t="n">
-        <v>19.36143417630978</v>
+        <v>19.36689298897419</v>
       </c>
       <c r="N16" t="n">
-        <v>1348.393702551992</v>
+        <v>1340.715402425525</v>
       </c>
       <c r="O16" t="n">
-        <v>36.72048069609101</v>
+        <v>36.6157807840489</v>
       </c>
       <c r="P16" t="n">
-        <v>342.5013867893979</v>
+        <v>342.0156275979049</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31510,28 +31800,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5062695218792123</v>
+        <v>-0.4563933253935301</v>
       </c>
       <c r="J17" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01121409867790113</v>
+        <v>0.00924960705311495</v>
       </c>
       <c r="M17" t="n">
-        <v>17.93143785302476</v>
+        <v>17.947006651239</v>
       </c>
       <c r="N17" t="n">
-        <v>1155.133180377535</v>
+        <v>1151.179583268345</v>
       </c>
       <c r="O17" t="n">
-        <v>33.98725026208408</v>
+        <v>33.92903746451326</v>
       </c>
       <c r="P17" t="n">
-        <v>338.3627228594468</v>
+        <v>337.861455761579</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31588,28 +31878,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.573794603195616</v>
+        <v>-0.5310545937275911</v>
       </c>
       <c r="J18" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02138474488923714</v>
+        <v>0.01858082140935657</v>
       </c>
       <c r="M18" t="n">
-        <v>14.92787955597552</v>
+        <v>14.94917538222064</v>
       </c>
       <c r="N18" t="n">
-        <v>788.202808883917</v>
+        <v>786.2350419026485</v>
       </c>
       <c r="O18" t="n">
-        <v>28.0749498465076</v>
+        <v>28.03988305793461</v>
       </c>
       <c r="P18" t="n">
-        <v>340.9941192413012</v>
+        <v>340.5693103374466</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31666,28 +31956,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5007045283975063</v>
+        <v>-0.4506411791677411</v>
       </c>
       <c r="J19" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K19" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01536852635490626</v>
+        <v>0.01262692046545788</v>
       </c>
       <c r="M19" t="n">
-        <v>15.04766842597675</v>
+        <v>15.09895322754278</v>
       </c>
       <c r="N19" t="n">
-        <v>868.1286836614098</v>
+        <v>866.647009742823</v>
       </c>
       <c r="O19" t="n">
-        <v>29.46402354841256</v>
+        <v>29.43886902961496</v>
       </c>
       <c r="P19" t="n">
-        <v>339.7482797215408</v>
+        <v>339.2662283468535</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31744,28 +32034,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3336129824014724</v>
+        <v>-0.2847476376113401</v>
       </c>
       <c r="J20" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K20" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02725126172569614</v>
+        <v>0.01976743149566107</v>
       </c>
       <c r="M20" t="n">
-        <v>11.40642342812193</v>
+        <v>11.56817515245951</v>
       </c>
       <c r="N20" t="n">
-        <v>218.7174267491486</v>
+        <v>223.404179939006</v>
       </c>
       <c r="O20" t="n">
-        <v>14.78909823989105</v>
+        <v>14.94671134193091</v>
       </c>
       <c r="P20" t="n">
-        <v>340.8277503626631</v>
+        <v>340.3604050655211</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31822,28 +32112,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1987388676508449</v>
+        <v>-0.1491021794904025</v>
       </c>
       <c r="J21" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K21" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01055284906646359</v>
+        <v>0.005848814179109874</v>
       </c>
       <c r="M21" t="n">
-        <v>10.75668502721586</v>
+        <v>10.91131802765903</v>
       </c>
       <c r="N21" t="n">
-        <v>200.2383798165999</v>
+        <v>206.0017105747633</v>
       </c>
       <c r="O21" t="n">
-        <v>14.15056111313611</v>
+        <v>14.35275968497917</v>
       </c>
       <c r="P21" t="n">
-        <v>338.5257736676744</v>
+        <v>338.041682701286</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31900,28 +32190,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1290724165604895</v>
+        <v>-0.08335946930465822</v>
       </c>
       <c r="J22" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K22" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004735051641735932</v>
+        <v>0.001947258391910678</v>
       </c>
       <c r="M22" t="n">
-        <v>10.61720985836321</v>
+        <v>10.74795367088692</v>
       </c>
       <c r="N22" t="n">
-        <v>187.9660146659718</v>
+        <v>192.7749184615609</v>
       </c>
       <c r="O22" t="n">
-        <v>13.71006982717345</v>
+        <v>13.88434076438492</v>
       </c>
       <c r="P22" t="n">
-        <v>337.8634718294464</v>
+        <v>337.4177106306063</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31978,28 +32268,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2710598754747706</v>
+        <v>-0.2186387548440974</v>
       </c>
       <c r="J23" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K23" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01700090995511938</v>
+        <v>0.01088076658097248</v>
       </c>
       <c r="M23" t="n">
-        <v>11.61240588594958</v>
+        <v>11.76928888909036</v>
       </c>
       <c r="N23" t="n">
-        <v>230.2536954936615</v>
+        <v>237.4385750528497</v>
       </c>
       <c r="O23" t="n">
-        <v>15.17411267566119</v>
+        <v>15.40904199010599</v>
       </c>
       <c r="P23" t="n">
-        <v>338.4808983496206</v>
+        <v>337.9768061401614</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -32056,28 +32346,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3328920232835107</v>
+        <v>-0.2663781682237386</v>
       </c>
       <c r="J24" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K24" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01769858222452281</v>
+        <v>0.01134330138690232</v>
       </c>
       <c r="M24" t="n">
-        <v>14.22530071270612</v>
+        <v>14.37807758356628</v>
       </c>
       <c r="N24" t="n">
-        <v>324.08616181209</v>
+        <v>330.3816808843363</v>
       </c>
       <c r="O24" t="n">
-        <v>18.00239322457128</v>
+        <v>18.17640450926245</v>
       </c>
       <c r="P24" t="n">
-        <v>338.6909712746277</v>
+        <v>338.0470894299019</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32134,28 +32424,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2547905078256882</v>
+        <v>-0.1971273900256189</v>
       </c>
       <c r="J25" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K25" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01052596264099204</v>
+        <v>0.006256744061006847</v>
       </c>
       <c r="M25" t="n">
-        <v>14.5005899176927</v>
+        <v>14.66734328565806</v>
       </c>
       <c r="N25" t="n">
-        <v>336.7184586913477</v>
+        <v>343.6057272702683</v>
       </c>
       <c r="O25" t="n">
-        <v>18.34988988226763</v>
+        <v>18.53660506323281</v>
       </c>
       <c r="P25" t="n">
-        <v>342.2058256138582</v>
+        <v>341.6577419350789</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -32212,28 +32502,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1539634149431046</v>
+        <v>-0.112311417525908</v>
       </c>
       <c r="J26" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K26" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004621575849658277</v>
+        <v>0.002453276167950658</v>
       </c>
       <c r="M26" t="n">
-        <v>12.84979339385355</v>
+        <v>12.94402731422158</v>
       </c>
       <c r="N26" t="n">
-        <v>273.5148256249765</v>
+        <v>277.0733812554536</v>
       </c>
       <c r="O26" t="n">
-        <v>16.53828363600578</v>
+        <v>16.64552135727366</v>
       </c>
       <c r="P26" t="n">
-        <v>342.2755420716152</v>
+        <v>341.8734643123979</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -32290,28 +32580,28 @@
         <v>0.0454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1938057946378353</v>
+        <v>-0.1533954372939068</v>
       </c>
       <c r="J27" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K27" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00720244966444572</v>
+        <v>0.004507183716536356</v>
       </c>
       <c r="M27" t="n">
-        <v>12.59191708048756</v>
+        <v>12.71462668484912</v>
       </c>
       <c r="N27" t="n">
-        <v>280.3032006903465</v>
+        <v>283.5855672750498</v>
       </c>
       <c r="O27" t="n">
-        <v>16.742257932858</v>
+        <v>16.83999902835656</v>
       </c>
       <c r="P27" t="n">
-        <v>343.4871896747357</v>
+        <v>343.0974546336328</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -32368,28 +32658,28 @@
         <v>0.043</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2932498347842125</v>
+        <v>-0.2573386674377794</v>
       </c>
       <c r="J28" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K28" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01855896441950877</v>
+        <v>0.0143568572747329</v>
       </c>
       <c r="M28" t="n">
-        <v>12.52582026262001</v>
+        <v>12.59725933051201</v>
       </c>
       <c r="N28" t="n">
-        <v>246.1347524815415</v>
+        <v>248.1844976903175</v>
       </c>
       <c r="O28" t="n">
-        <v>15.68868230545642</v>
+        <v>15.75387246648637</v>
       </c>
       <c r="P28" t="n">
-        <v>337.3831669546119</v>
+        <v>337.038182182259</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -32446,28 +32736,28 @@
         <v>0.0371</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3631936366292032</v>
+        <v>-0.3259953735161951</v>
       </c>
       <c r="J29" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K29" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02474798244435061</v>
+        <v>0.02004573194702708</v>
       </c>
       <c r="M29" t="n">
-        <v>13.37693902821495</v>
+        <v>13.43958276626557</v>
       </c>
       <c r="N29" t="n">
-        <v>282.5625780382202</v>
+        <v>284.7075023269223</v>
       </c>
       <c r="O29" t="n">
-        <v>16.80959779525436</v>
+        <v>16.87327775883875</v>
       </c>
       <c r="P29" t="n">
-        <v>351.0988007873102</v>
+        <v>350.7409432724376</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -32524,28 +32814,28 @@
         <v>0.0381</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6303792727280519</v>
+        <v>-0.5929941678971384</v>
       </c>
       <c r="J30" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K30" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06562886053832762</v>
+        <v>0.058584216355272</v>
       </c>
       <c r="M30" t="n">
-        <v>13.974971242613</v>
+        <v>14.02830595962502</v>
       </c>
       <c r="N30" t="n">
-        <v>305.4359493257319</v>
+        <v>307.3955648053957</v>
       </c>
       <c r="O30" t="n">
-        <v>17.47672593267206</v>
+        <v>17.53269987210743</v>
       </c>
       <c r="P30" t="n">
-        <v>356.584693984245</v>
+        <v>356.2190673187365</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -32602,28 +32892,28 @@
         <v>0.0449</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6181816444523662</v>
+        <v>-0.5773681601136484</v>
       </c>
       <c r="J31" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K31" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08085980352597644</v>
+        <v>0.07101244270361229</v>
       </c>
       <c r="M31" t="n">
-        <v>12.28632594242011</v>
+        <v>12.38346559017092</v>
       </c>
       <c r="N31" t="n">
-        <v>232.7219019485454</v>
+        <v>235.6682367164213</v>
       </c>
       <c r="O31" t="n">
-        <v>15.25522539815605</v>
+        <v>15.35148972303409</v>
       </c>
       <c r="P31" t="n">
-        <v>355.0853795870185</v>
+        <v>354.6875064438113</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -32661,7 +32951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF311"/>
+  <dimension ref="A1:AF314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72207,7 +72497,11 @@
           <t>2025-01-30 22:06:08+00:00</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-37.91167042171382,174.77277050849955</t>
+        </is>
+      </c>
       <c r="C311" t="inlineStr">
         <is>
           <t>-37.91102800782927,174.7723763227308</t>
@@ -72309,7 +72603,11 @@
           <t>-37.89751127761966,174.76697139475866</t>
         </is>
       </c>
-      <c r="X311" t="inlineStr"/>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>-37.8968089521458,174.7668100523215</t>
+        </is>
+      </c>
       <c r="Y311" t="inlineStr">
         <is>
           <t>-37.89611768311075,174.7666023548814</t>
@@ -72348,6 +72646,392 @@
       <c r="AF311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-37.9117727149741,174.7723941013832</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-37.911095686325915,174.77212728711953</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-37.91038947018172,174.77196785096285</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-37.90965182518848,174.7719240381313</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-37.90898070800362,174.77163540284175</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-37.908328348819374,174.7712777224144</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-37.90764520814472,174.7710332839194</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-37.90697427282494,174.77074391158155</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-37.906303657065045,174.77045334075817</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-37.90563139272572,174.770168813428</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-37.904947410296636,174.76992738125452</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-37.90427028630752,174.7696606900297</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-37.9036010198743,174.7693650636264</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-37.9029300907096,174.76907553275</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-37.90224414372618,174.7688412381953</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-37.90157371454904,174.76854982224077</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-37.90089633513546,174.76829207802098</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>-37.90023057666686,174.7679885396228</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>-37.89958088369251,174.76760889575243</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>-37.89890457046831,174.76733999159302</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>-37.89821902520615,174.76710950104604</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>-37.89754734189593,174.76682130359868</t>
+        </is>
+      </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>-37.896885093646944,174.7664943778972</t>
+        </is>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>-37.89620284755049,174.76625045164243</t>
+        </is>
+      </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>-37.8955176216332,174.76601829481476</t>
+        </is>
+      </c>
+      <c r="AA312" t="inlineStr">
+        <is>
+          <t>-37.89481871322059,174.76584264858693</t>
+        </is>
+      </c>
+      <c r="AB312" t="inlineStr">
+        <is>
+          <t>-37.89412057068024,174.7656638112065</t>
+        </is>
+      </c>
+      <c r="AC312" t="inlineStr">
+        <is>
+          <t>-37.893470586103724,174.76528595789028</t>
+        </is>
+      </c>
+      <c r="AD312" t="inlineStr">
+        <is>
+          <t>-37.89278198419696,174.76506764646572</t>
+        </is>
+      </c>
+      <c r="AE312" t="inlineStr">
+        <is>
+          <t>-37.89210747809756,174.76479106488082</t>
+        </is>
+      </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-37.91176725869007,174.77241417893433</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-37.911117466121,174.77204714380886</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-37.91047696886766,174.7716458819086</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-37.90974916757474,174.77156585092732</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-37.90902735767414,174.7714637486723</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-37.908280706729144,174.7714530273306</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-37.90754896085513,174.771387435205</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
+      <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr"/>
+      <c r="Y313" t="inlineStr"/>
+      <c r="Z313" t="inlineStr"/>
+      <c r="AA313" t="inlineStr"/>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr"/>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-37.91171688158842,174.7725995514047</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-37.91109820050632,174.77211803567948</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-37.90904225461212,174.7714089330095</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-37.908390237354084,174.7710499941998</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-37.90763825879631,174.77105885488533</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-37.90693682420152,174.7708817077792</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-37.90629982745669,174.77046743222</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-37.90561391641483,174.77023311923784</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-37.90496462870104,174.76986402450623</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-37.90429630376657,174.76956495651385</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-37.90362744641932,174.76926782498208</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-37.902944677843465,174.76902185832785</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-37.90227595710818,174.76872417884152</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-37.90160663019834,174.7684287072118</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-37.90092670376613,174.76817348898166</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>-37.900252678357376,174.76789659135258</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>-37.89956619556952,174.76767005335387</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>-37.89890049336992,174.76735696758433</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>-37.89822098533755,174.76710133958176</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>-37.897548283155345,174.7668173862826</t>
+        </is>
+      </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>-37.896839492806464,174.76668343454327</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>-37.8961898203005,174.76630428114836</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>-37.89549351475961,174.76611790571027</t>
+        </is>
+      </c>
+      <c r="AA314" t="inlineStr">
+        <is>
+          <t>-37.894831714005996,174.76578892875762</t>
+        </is>
+      </c>
+      <c r="AB314" t="inlineStr">
+        <is>
+          <t>-37.894100332645635,174.76574743500595</t>
+        </is>
+      </c>
+      <c r="AC314" t="inlineStr">
+        <is>
+          <t>-37.893459724685165,174.7653308375746</t>
+        </is>
+      </c>
+      <c r="AD314" t="inlineStr">
+        <is>
+          <t>-37.89278086009,174.76507229129444</t>
+        </is>
+      </c>
+      <c r="AE314" t="inlineStr">
+        <is>
+          <t>-37.89208950377354,174.76486533489918</t>
+        </is>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF314"/>
+  <dimension ref="A1:AF316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27042,7 +27042,9 @@
       <c r="C314" t="n">
         <v>381.19</v>
       </c>
-      <c r="D314" t="inlineStr"/>
+      <c r="D314" t="n">
+        <v>358.12</v>
+      </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
         <v>368.6842857142857</v>
@@ -27125,6 +27127,176 @@
       <c r="AF314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>355.2209090909091</v>
+      </c>
+      <c r="C315" t="n">
+        <v>361.35</v>
+      </c>
+      <c r="D315" t="n">
+        <v>356.64</v>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="H315" t="n">
+        <v>346.5771428571429</v>
+      </c>
+      <c r="I315" t="n">
+        <v>340.91</v>
+      </c>
+      <c r="J315" t="n">
+        <v>352.45</v>
+      </c>
+      <c r="K315" t="n">
+        <v>354.5909090909091</v>
+      </c>
+      <c r="L315" t="n">
+        <v>356.15</v>
+      </c>
+      <c r="M315" t="n">
+        <v>355.28</v>
+      </c>
+      <c r="N315" t="n">
+        <v>344.47</v>
+      </c>
+      <c r="O315" t="n">
+        <v>334.03</v>
+      </c>
+      <c r="P315" t="n">
+        <v>351.5171428571429</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="R315" t="n">
+        <v>354.22</v>
+      </c>
+      <c r="S315" t="n">
+        <v>350.96</v>
+      </c>
+      <c r="T315" t="n">
+        <v>353.23</v>
+      </c>
+      <c r="U315" t="n">
+        <v>349.16</v>
+      </c>
+      <c r="V315" t="n">
+        <v>347.12</v>
+      </c>
+      <c r="W315" t="n">
+        <v>349.46</v>
+      </c>
+      <c r="X315" t="n">
+        <v>337</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>342.62</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>343.92</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>355.41</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>332.12</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>361.0471428571428</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>357.7971428571428</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>355.09</v>
+      </c>
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>379.9345454545455</v>
+      </c>
+      <c r="C316" t="n">
+        <v>384.46</v>
+      </c>
+      <c r="D316" t="n">
+        <v>390.85</v>
+      </c>
+      <c r="E316" t="n">
+        <v>357.8414285714285</v>
+      </c>
+      <c r="F316" t="n">
+        <v>364.9014285714285</v>
+      </c>
+      <c r="G316" t="n">
+        <v>343.2333333333333</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
+      <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr"/>
+      <c r="V316" t="inlineStr"/>
+      <c r="W316" t="n">
+        <v>347.9755555555556</v>
+      </c>
+      <c r="X316" t="n">
+        <v>354.65</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>352.6433333333333</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>360.2055555555555</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>360.4</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>353.4</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>358.6014285714285</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>355.7414285714286</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>357.15</v>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -27139,7 +27311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30457,6 +30629,26 @@
       </c>
       <c r="B331" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -30630,28 +30822,28 @@
         <v>0.0603</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08407491825598692</v>
+        <v>-0.0599117953060042</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001366527437892562</v>
+        <v>0.0006972186720468621</v>
       </c>
       <c r="M2" t="n">
-        <v>13.11934073663249</v>
+        <v>13.15014803477232</v>
       </c>
       <c r="N2" t="n">
-        <v>271.1166547517935</v>
+        <v>272.0182623382393</v>
       </c>
       <c r="O2" t="n">
-        <v>16.46562038769853</v>
+        <v>16.4929761516301</v>
       </c>
       <c r="P2" t="n">
-        <v>354.5611614823163</v>
+        <v>354.3162612040853</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30708,28 +30900,28 @@
         <v>0.0583</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1810982899362765</v>
+        <v>-0.1438622309573372</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008795967869281718</v>
+        <v>0.005499418946516621</v>
       </c>
       <c r="M3" t="n">
-        <v>10.61613637319728</v>
+        <v>10.71831305787167</v>
       </c>
       <c r="N3" t="n">
-        <v>193.7511460349841</v>
+        <v>197.7375255143646</v>
       </c>
       <c r="O3" t="n">
-        <v>13.91945207380607</v>
+        <v>14.06191756178241</v>
       </c>
       <c r="P3" t="n">
-        <v>354.0460200152466</v>
+        <v>353.6713256816133</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30786,28 +30978,28 @@
         <v>0.0557</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3104461543749467</v>
+        <v>-0.2500073098632093</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02317029484033362</v>
+        <v>0.01483525579822165</v>
       </c>
       <c r="M4" t="n">
-        <v>11.19882473628875</v>
+        <v>11.34767220877344</v>
       </c>
       <c r="N4" t="n">
-        <v>210.501133810323</v>
+        <v>218.0469139115226</v>
       </c>
       <c r="O4" t="n">
-        <v>14.50865720217839</v>
+        <v>14.76641168028044</v>
       </c>
       <c r="P4" t="n">
-        <v>352.4878186237373</v>
+        <v>351.8883428230196</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30864,28 +31056,28 @@
         <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5366990811388906</v>
+        <v>-0.517345850415579</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04018195220800125</v>
+        <v>0.03765495532546037</v>
       </c>
       <c r="M5" t="n">
-        <v>15.23862646484261</v>
+        <v>15.24814391704424</v>
       </c>
       <c r="N5" t="n">
-        <v>367.0762985541996</v>
+        <v>366.9803815397244</v>
       </c>
       <c r="O5" t="n">
-        <v>19.15923533323289</v>
+        <v>19.1567320161797</v>
       </c>
       <c r="P5" t="n">
-        <v>352.624841885191</v>
+        <v>352.4358473441389</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30942,28 +31134,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8932767815589009</v>
+        <v>-0.8611667154606405</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07785288749939312</v>
+        <v>0.07266084347827961</v>
       </c>
       <c r="M6" t="n">
-        <v>18.19658609567808</v>
+        <v>18.27192098024256</v>
       </c>
       <c r="N6" t="n">
-        <v>529.3344751503367</v>
+        <v>532.5920151322007</v>
       </c>
       <c r="O6" t="n">
-        <v>23.0072700499285</v>
+        <v>23.07795517657924</v>
       </c>
       <c r="P6" t="n">
-        <v>352.9872663388505</v>
+        <v>352.6805376361215</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31020,28 +31212,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5875748606779262</v>
+        <v>-0.5579878424344795</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03908211456415212</v>
+        <v>0.03568388761394026</v>
       </c>
       <c r="M7" t="n">
-        <v>16.59730966593689</v>
+        <v>16.58763324937505</v>
       </c>
       <c r="N7" t="n">
-        <v>471.913334151495</v>
+        <v>471.5217784122966</v>
       </c>
       <c r="O7" t="n">
-        <v>21.72356633132541</v>
+        <v>21.7145522268431</v>
       </c>
       <c r="P7" t="n">
-        <v>352.5105262998528</v>
+        <v>352.2233800388076</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31098,28 +31290,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3901636533533306</v>
+        <v>-0.3844298522968408</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02060888908976377</v>
+        <v>0.02016250915820039</v>
       </c>
       <c r="M8" t="n">
-        <v>15.51510784529209</v>
+        <v>15.48085386644036</v>
       </c>
       <c r="N8" t="n">
-        <v>380.9264768209224</v>
+        <v>379.526286804732</v>
       </c>
       <c r="O8" t="n">
-        <v>19.5173378517902</v>
+        <v>19.4814344134289</v>
       </c>
       <c r="P8" t="n">
-        <v>349.2178694301386</v>
+        <v>349.1597425724709</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31176,28 +31368,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1679203779301653</v>
+        <v>-0.166491575373306</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003760539303007682</v>
+        <v>0.0037261875706458</v>
       </c>
       <c r="M9" t="n">
-        <v>16.13344795951502</v>
+        <v>16.07279014072144</v>
       </c>
       <c r="N9" t="n">
-        <v>391.185277883559</v>
+        <v>389.5551476541362</v>
       </c>
       <c r="O9" t="n">
-        <v>19.77840433107684</v>
+        <v>19.73715145744533</v>
       </c>
       <c r="P9" t="n">
-        <v>343.361618328126</v>
+        <v>343.3471475074094</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31254,28 +31446,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2622434270362712</v>
+        <v>-0.2519252994684368</v>
       </c>
       <c r="J10" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K10" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01421278444566776</v>
+        <v>0.01320082529464539</v>
       </c>
       <c r="M10" t="n">
-        <v>12.38870459191655</v>
+        <v>12.3902712878239</v>
       </c>
       <c r="N10" t="n">
-        <v>248.0633885749584</v>
+        <v>247.6877277746268</v>
       </c>
       <c r="O10" t="n">
-        <v>15.75002820870358</v>
+        <v>15.73809797194778</v>
       </c>
       <c r="P10" t="n">
-        <v>346.3764679735762</v>
+        <v>346.2718084976663</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31332,28 +31524,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1795557653155852</v>
+        <v>-0.1680337477034804</v>
       </c>
       <c r="J11" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K11" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006655162471414622</v>
+        <v>0.005859485220062632</v>
       </c>
       <c r="M11" t="n">
-        <v>12.72646189783417</v>
+        <v>12.73026635561408</v>
       </c>
       <c r="N11" t="n">
-        <v>253.6596909923366</v>
+        <v>253.4754787759201</v>
       </c>
       <c r="O11" t="n">
-        <v>15.92669742891905</v>
+        <v>15.92091325194381</v>
       </c>
       <c r="P11" t="n">
-        <v>344.5740548318658</v>
+        <v>344.458268203265</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31410,28 +31602,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1691786319297755</v>
+        <v>-0.1557862030736263</v>
       </c>
       <c r="J12" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K12" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006471216684249437</v>
+        <v>0.005503677438105092</v>
       </c>
       <c r="M12" t="n">
-        <v>11.45301572289353</v>
+        <v>11.47186512080799</v>
       </c>
       <c r="N12" t="n">
-        <v>227.8815035263436</v>
+        <v>228.2343825041587</v>
       </c>
       <c r="O12" t="n">
-        <v>15.09574455024805</v>
+        <v>15.10742805722267</v>
       </c>
       <c r="P12" t="n">
-        <v>342.4966394488281</v>
+        <v>342.360532062837</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31488,28 +31680,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3076674601770501</v>
+        <v>-0.2917742246648464</v>
       </c>
       <c r="J13" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K13" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02168122780302051</v>
+        <v>0.01955848145827688</v>
       </c>
       <c r="M13" t="n">
-        <v>11.06717290639054</v>
+        <v>11.09463564003056</v>
       </c>
       <c r="N13" t="n">
-        <v>220.1858744473209</v>
+        <v>220.8560813457552</v>
       </c>
       <c r="O13" t="n">
-        <v>14.83866147761721</v>
+        <v>14.86122745084521</v>
       </c>
       <c r="P13" t="n">
-        <v>343.4874298869057</v>
+        <v>343.3254808702566</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31566,28 +31758,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3537806492770317</v>
+        <v>-0.3461943865300555</v>
       </c>
       <c r="J14" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02933113590571734</v>
+        <v>0.02832483567284927</v>
       </c>
       <c r="M14" t="n">
-        <v>11.44824339040529</v>
+        <v>11.43171068754734</v>
       </c>
       <c r="N14" t="n">
-        <v>214.1378978589198</v>
+        <v>213.4597059497624</v>
       </c>
       <c r="O14" t="n">
-        <v>14.63345133107429</v>
+        <v>14.61026029712552</v>
       </c>
       <c r="P14" t="n">
-        <v>344.9895728762771</v>
+        <v>344.9121660471091</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31644,28 +31836,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4528791867438705</v>
+        <v>-0.4554115341981536</v>
       </c>
       <c r="J15" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04295132761294429</v>
+        <v>0.04379759050590382</v>
       </c>
       <c r="M15" t="n">
-        <v>12.08596829654403</v>
+        <v>12.03880460703472</v>
       </c>
       <c r="N15" t="n">
-        <v>243.888334964337</v>
+        <v>242.6991842469938</v>
       </c>
       <c r="O15" t="n">
-        <v>15.61692463208865</v>
+        <v>15.57880561041166</v>
       </c>
       <c r="P15" t="n">
-        <v>348.2182437499047</v>
+        <v>348.2435659510887</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31722,28 +31914,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5443206594213146</v>
+        <v>-0.521647893459124</v>
       </c>
       <c r="J16" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K16" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01084605504574832</v>
+        <v>0.01004535617621127</v>
       </c>
       <c r="M16" t="n">
-        <v>19.36689298897419</v>
+        <v>19.36923565619699</v>
       </c>
       <c r="N16" t="n">
-        <v>1340.715402425525</v>
+        <v>1336.706009491813</v>
       </c>
       <c r="O16" t="n">
-        <v>36.6157807840489</v>
+        <v>36.56099026957301</v>
       </c>
       <c r="P16" t="n">
-        <v>342.0156275979049</v>
+        <v>341.7780503383917</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31800,28 +31992,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4563933253935301</v>
+        <v>-0.4375094452916835</v>
       </c>
       <c r="J17" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K17" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00924960705311495</v>
+        <v>0.008571617773695639</v>
       </c>
       <c r="M17" t="n">
-        <v>17.947006651239</v>
+        <v>17.93305339605401</v>
       </c>
       <c r="N17" t="n">
-        <v>1151.179583268345</v>
+        <v>1147.704785354937</v>
       </c>
       <c r="O17" t="n">
-        <v>33.92903746451326</v>
+        <v>33.8777919197066</v>
       </c>
       <c r="P17" t="n">
-        <v>337.861455761579</v>
+        <v>337.6707581933077</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31878,28 +32070,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5310545937275911</v>
+        <v>-0.5067868073901185</v>
       </c>
       <c r="J18" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K18" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01858082140935657</v>
+        <v>0.01702964592371803</v>
       </c>
       <c r="M18" t="n">
-        <v>14.94917538222064</v>
+        <v>14.97155419453758</v>
       </c>
       <c r="N18" t="n">
-        <v>786.2350419026485</v>
+        <v>785.9464583589851</v>
       </c>
       <c r="O18" t="n">
-        <v>28.03988305793461</v>
+        <v>28.03473663794588</v>
       </c>
       <c r="P18" t="n">
-        <v>340.5693103374466</v>
+        <v>340.3269224385551</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31956,28 +32148,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4506411791677411</v>
+        <v>-0.4291972830320104</v>
       </c>
       <c r="J19" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K19" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01262692046545788</v>
+        <v>0.01154385701650584</v>
       </c>
       <c r="M19" t="n">
-        <v>15.09895322754278</v>
+        <v>15.10916578929325</v>
       </c>
       <c r="N19" t="n">
-        <v>866.647009742823</v>
+        <v>864.9795281958422</v>
       </c>
       <c r="O19" t="n">
-        <v>29.43886902961496</v>
+        <v>29.41053430653449</v>
       </c>
       <c r="P19" t="n">
-        <v>339.2662283468535</v>
+        <v>339.0586725055335</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -32034,28 +32226,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2847476376113401</v>
+        <v>-0.2662267193810805</v>
       </c>
       <c r="J20" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01976743149566107</v>
+        <v>0.01733430023567184</v>
       </c>
       <c r="M20" t="n">
-        <v>11.56817515245951</v>
+        <v>11.61456286296284</v>
       </c>
       <c r="N20" t="n">
-        <v>223.404179939006</v>
+        <v>224.2750708989282</v>
       </c>
       <c r="O20" t="n">
-        <v>14.94671134193091</v>
+        <v>14.97581620142716</v>
       </c>
       <c r="P20" t="n">
-        <v>340.3604050655211</v>
+        <v>340.1821397265521</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32112,28 +32304,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1491021794904025</v>
+        <v>-0.1364087102638221</v>
       </c>
       <c r="J21" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005848814179109874</v>
+        <v>0.004918554047174006</v>
       </c>
       <c r="M21" t="n">
-        <v>10.91131802765903</v>
+        <v>10.92704972436413</v>
       </c>
       <c r="N21" t="n">
-        <v>206.0017105747633</v>
+        <v>206.0615093765923</v>
       </c>
       <c r="O21" t="n">
-        <v>14.35275968497917</v>
+        <v>14.35484271514642</v>
       </c>
       <c r="P21" t="n">
-        <v>338.041682701286</v>
+        <v>337.9171344978456</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -32190,28 +32382,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.08335946930465822</v>
+        <v>-0.07349458139185922</v>
       </c>
       <c r="J22" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K22" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001947258391910678</v>
+        <v>0.001522512452794333</v>
       </c>
       <c r="M22" t="n">
-        <v>10.74795367088692</v>
+        <v>10.74997758657405</v>
       </c>
       <c r="N22" t="n">
-        <v>192.7749184615609</v>
+        <v>192.5304867128516</v>
       </c>
       <c r="O22" t="n">
-        <v>13.88434076438492</v>
+        <v>13.87553554688436</v>
       </c>
       <c r="P22" t="n">
-        <v>337.4177106306063</v>
+        <v>337.3209579396459</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -32268,28 +32460,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2186387548440974</v>
+        <v>-0.1935388830366494</v>
       </c>
       <c r="J23" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K23" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01088076658097248</v>
+        <v>0.008607650154289104</v>
       </c>
       <c r="M23" t="n">
-        <v>11.76928888909036</v>
+        <v>11.79315649566787</v>
       </c>
       <c r="N23" t="n">
-        <v>237.4385750528497</v>
+        <v>237.6178446613951</v>
       </c>
       <c r="O23" t="n">
-        <v>15.40904199010599</v>
+        <v>15.41485791894934</v>
       </c>
       <c r="P23" t="n">
-        <v>337.9768061401614</v>
+        <v>337.7339195884934</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -32346,28 +32538,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2663781682237386</v>
+        <v>-0.2421375385098321</v>
       </c>
       <c r="J24" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K24" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01134330138690232</v>
+        <v>0.009487070052172863</v>
       </c>
       <c r="M24" t="n">
-        <v>14.37807758356628</v>
+        <v>14.37601684846452</v>
       </c>
       <c r="N24" t="n">
-        <v>330.3816808843363</v>
+        <v>329.9783479035227</v>
       </c>
       <c r="O24" t="n">
-        <v>18.17640450926245</v>
+        <v>18.16530616046762</v>
       </c>
       <c r="P24" t="n">
-        <v>338.0470894299019</v>
+        <v>337.8104944899429</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32424,28 +32616,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1971273900256189</v>
+        <v>-0.1782846427347303</v>
       </c>
       <c r="J25" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K25" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006256744061006847</v>
+        <v>0.005196729933612754</v>
       </c>
       <c r="M25" t="n">
-        <v>14.66734328565806</v>
+        <v>14.62938384264483</v>
       </c>
       <c r="N25" t="n">
-        <v>343.6057272702683</v>
+        <v>341.7326598302162</v>
       </c>
       <c r="O25" t="n">
-        <v>18.53660506323281</v>
+        <v>18.48601254544138</v>
       </c>
       <c r="P25" t="n">
-        <v>341.6577419350789</v>
+        <v>341.4773776214697</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -32502,28 +32694,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.112311417525908</v>
+        <v>-0.09207453554227796</v>
       </c>
       <c r="J26" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K26" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002453276167950658</v>
+        <v>0.001665961346260292</v>
       </c>
       <c r="M26" t="n">
-        <v>12.94402731422158</v>
+        <v>12.93577041040647</v>
       </c>
       <c r="N26" t="n">
-        <v>277.0733812554536</v>
+        <v>276.7081890239697</v>
       </c>
       <c r="O26" t="n">
-        <v>16.64552135727366</v>
+        <v>16.63454805589769</v>
       </c>
       <c r="P26" t="n">
-        <v>341.8734643123979</v>
+        <v>341.6767135979208</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -32580,28 +32772,28 @@
         <v>0.0454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1533954372939068</v>
+        <v>-0.125090039230545</v>
       </c>
       <c r="J27" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K27" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004507183716536356</v>
+        <v>0.003019704458233852</v>
       </c>
       <c r="M27" t="n">
-        <v>12.71462668484912</v>
+        <v>12.77044910670384</v>
       </c>
       <c r="N27" t="n">
-        <v>283.5855672750498</v>
+        <v>284.1010883008772</v>
       </c>
       <c r="O27" t="n">
-        <v>16.83999902835656</v>
+        <v>16.85529852304246</v>
       </c>
       <c r="P27" t="n">
-        <v>343.0974546336328</v>
+        <v>342.8227957067763</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -32658,28 +32850,28 @@
         <v>0.043</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2573386674377794</v>
+        <v>-0.2375180020227599</v>
       </c>
       <c r="J28" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K28" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0143568572747329</v>
+        <v>0.01235436082970098</v>
       </c>
       <c r="M28" t="n">
-        <v>12.59725933051201</v>
+        <v>12.58883607290951</v>
       </c>
       <c r="N28" t="n">
-        <v>248.1844976903175</v>
+        <v>248.2810011101813</v>
       </c>
       <c r="O28" t="n">
-        <v>15.75387246648637</v>
+        <v>15.75693501637235</v>
       </c>
       <c r="P28" t="n">
-        <v>337.038182182259</v>
+        <v>336.8463550404123</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -32736,28 +32928,28 @@
         <v>0.0371</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3259953735161951</v>
+        <v>-0.2986797336321951</v>
       </c>
       <c r="J29" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K29" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02004573194702708</v>
+        <v>0.01701018323434378</v>
       </c>
       <c r="M29" t="n">
-        <v>13.43958276626557</v>
+        <v>13.45610733865669</v>
       </c>
       <c r="N29" t="n">
-        <v>284.7075023269223</v>
+        <v>284.7945307145159</v>
       </c>
       <c r="O29" t="n">
-        <v>16.87327775883875</v>
+        <v>16.87585644388207</v>
       </c>
       <c r="P29" t="n">
-        <v>350.7409432724376</v>
+        <v>350.4764006683597</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -32814,28 +33006,28 @@
         <v>0.0381</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5929941678971384</v>
+        <v>-0.5683408690202678</v>
       </c>
       <c r="J30" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K30" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L30" t="n">
-        <v>0.058584216355272</v>
+        <v>0.05455881974880461</v>
       </c>
       <c r="M30" t="n">
-        <v>14.02830595962502</v>
+        <v>14.02098985171729</v>
       </c>
       <c r="N30" t="n">
-        <v>307.3955648053957</v>
+        <v>306.7968914306846</v>
       </c>
       <c r="O30" t="n">
-        <v>17.53269987210743</v>
+        <v>17.51561849980424</v>
       </c>
       <c r="P30" t="n">
-        <v>356.2190673187365</v>
+        <v>355.9763727380469</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -32892,28 +33084,28 @@
         <v>0.0449</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5773681601136484</v>
+        <v>-0.5499393865396498</v>
       </c>
       <c r="J31" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K31" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07101244270361229</v>
+        <v>0.06533195932313196</v>
       </c>
       <c r="M31" t="n">
-        <v>12.38346559017092</v>
+        <v>12.40914914369735</v>
       </c>
       <c r="N31" t="n">
-        <v>235.6682367164213</v>
+        <v>235.821745079824</v>
       </c>
       <c r="O31" t="n">
-        <v>15.35148972303409</v>
+        <v>15.35648869630763</v>
       </c>
       <c r="P31" t="n">
-        <v>354.6875064438113</v>
+        <v>354.418259895515</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -32951,7 +33143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF314"/>
+  <dimension ref="A1:AF316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72897,7 +73089,11 @@
           <t>-37.91109820050632,174.77211803567948</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-37.91035763365976,174.77208499887817</t>
+        </is>
+      </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
@@ -73032,6 +73228,262 @@
       <c r="AF314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-37.91169539648474,174.77267860967603</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-37.911040198767246,174.77233146408338</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-37.91035330692434,174.77210091979887</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-37.90836331282501,174.77114906731694</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-37.907631338676524,174.7710843182761</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-37.90694161856964,174.7708640664318</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-37.906302195382665,174.7704587191789</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-37.90563528874777,174.77015447760903</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-37.90496667502871,174.76985649483973</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-37.90429095411549,174.76958464105152</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-37.9035861695246,174.7694197065496</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-37.90288246067586,174.76925079016198</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-37.902260384517895,174.76878147923927</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>-37.90157339299236,174.76855100542434</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>-37.900922436648095,174.76819015204626</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>-37.90023378512178,174.7679751917118</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>-37.89955892990284,174.76770030568113</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>-37.898867484465576,174.76749440774947</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>-37.89818133830476,174.76726641871136</t>
+        </is>
+      </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>-37.89750662358866,174.76699076368885</t>
+        </is>
+      </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>-37.89679307829593,174.76687586306505</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>-37.89612728916386,174.76656266250043</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>-37.895450292366554,174.7662965019309</t>
+        </is>
+      </c>
+      <c r="AA315" t="inlineStr">
+        <is>
+          <t>-37.89480010679145,174.76591953098026</t>
+        </is>
+      </c>
+      <c r="AB315" t="inlineStr">
+        <is>
+          <t>-37.894058382619455,174.76592077209162</t>
+        </is>
+      </c>
+      <c r="AC315" t="inlineStr">
+        <is>
+          <t>-37.89345407403397,174.76535418618997</t>
+        </is>
+      </c>
+      <c r="AD315" t="inlineStr">
+        <is>
+          <t>-37.89276507745918,174.76513750529531</t>
+        </is>
+      </c>
+      <c r="AE315" t="inlineStr">
+        <is>
+          <t>-37.89207750332074,174.76491492071764</t>
+        </is>
+      </c>
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-37.91176764671623,174.77241275111052</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-37.911107760232355,174.77208285868628</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-37.91045331828896,174.77173290937242</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-37.90968369086334,174.77180678371886</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-37.90903119571578,174.77144962599604</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-37.908294709963656,174.77140150083332</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
+      <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr"/>
+      <c r="V316" t="inlineStr"/>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>-37.897502742321976,174.76700691655256</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>-37.896839387855984,174.7666838696561</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>-37.8961536684585,174.76645366245447</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>-37.895493152161656,174.76611940398138</t>
+        </is>
+      </c>
+      <c r="AA316" t="inlineStr">
+        <is>
+          <t>-37.89481323919846,174.7658652674565</t>
+        </is>
+      </c>
+      <c r="AB316" t="inlineStr">
+        <is>
+          <t>-37.89411438611149,174.76568936594873</t>
+        </is>
+      </c>
+      <c r="AC316" t="inlineStr">
+        <is>
+          <t>-37.89344763762467,174.76538078154766</t>
+        </is>
+      </c>
+      <c r="AD316" t="inlineStr">
+        <is>
+          <t>-37.89275966744488,174.76515985949234</t>
+        </is>
+      </c>
+      <c r="AE316" t="inlineStr">
+        <is>
+          <t>-37.892082924580464,174.7648925201088</t>
+        </is>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF316"/>
+  <dimension ref="A1:AF318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27300,6 +27300,158 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>339.0354545454546</v>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="n">
+        <v>311.17</v>
+      </c>
+      <c r="J317" t="n">
+        <v>332.87</v>
+      </c>
+      <c r="K317" t="n">
+        <v>332.1554545454546</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
+      <c r="S317" t="inlineStr"/>
+      <c r="T317" t="inlineStr"/>
+      <c r="U317" t="inlineStr"/>
+      <c r="V317" t="inlineStr"/>
+      <c r="W317" t="inlineStr"/>
+      <c r="X317" t="inlineStr"/>
+      <c r="Y317" t="inlineStr"/>
+      <c r="Z317" t="inlineStr"/>
+      <c r="AA317" t="inlineStr"/>
+      <c r="AB317" t="inlineStr"/>
+      <c r="AC317" t="inlineStr"/>
+      <c r="AD317" t="inlineStr"/>
+      <c r="AE317" t="inlineStr"/>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>372.2054545454546</v>
+      </c>
+      <c r="C318" t="n">
+        <v>372.96</v>
+      </c>
+      <c r="D318" t="n">
+        <v>368.65</v>
+      </c>
+      <c r="E318" t="n">
+        <v>349.34</v>
+      </c>
+      <c r="F318" t="n">
+        <v>366.55</v>
+      </c>
+      <c r="G318" t="n">
+        <v>359.5666666666667</v>
+      </c>
+      <c r="H318" t="n">
+        <v>356.95</v>
+      </c>
+      <c r="I318" t="n">
+        <v>347</v>
+      </c>
+      <c r="J318" t="n">
+        <v>354.24</v>
+      </c>
+      <c r="K318" t="n">
+        <v>355.7954545454546</v>
+      </c>
+      <c r="L318" t="n">
+        <v>355.29</v>
+      </c>
+      <c r="M318" t="n">
+        <v>352.84</v>
+      </c>
+      <c r="N318" t="n">
+        <v>353.39</v>
+      </c>
+      <c r="O318" t="n">
+        <v>353.0411111111111</v>
+      </c>
+      <c r="P318" t="n">
+        <v>352.44</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="R318" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="S318" t="n">
+        <v>356.2311111111111</v>
+      </c>
+      <c r="T318" t="n">
+        <v>360.94</v>
+      </c>
+      <c r="U318" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="V318" t="n">
+        <v>352.81</v>
+      </c>
+      <c r="W318" t="n">
+        <v>354.4211111111111</v>
+      </c>
+      <c r="X318" t="n">
+        <v>345.86</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>340.3066666666667</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>343.0111111111111</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>337.92</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>367.77</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>371.12</v>
+      </c>
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27311,7 +27463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30649,6 +30801,26 @@
       </c>
       <c r="B333" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -30822,28 +30994,28 @@
         <v>0.0603</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0599117953060042</v>
+        <v>-0.05544425379716858</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006972186720468621</v>
+        <v>0.0006012962894144103</v>
       </c>
       <c r="M2" t="n">
-        <v>13.15014803477232</v>
+        <v>13.18210587221931</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0182623382393</v>
+        <v>272.1103987872211</v>
       </c>
       <c r="O2" t="n">
-        <v>16.4929761516301</v>
+        <v>16.49576911778354</v>
       </c>
       <c r="P2" t="n">
-        <v>354.3162612040853</v>
+        <v>354.2706359467707</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30900,28 +31072,28 @@
         <v>0.0583</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1438622309573372</v>
+        <v>-0.1256952704949228</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005499418946516621</v>
+        <v>0.004191495801795009</v>
       </c>
       <c r="M3" t="n">
-        <v>10.71831305787167</v>
+        <v>10.76656730204739</v>
       </c>
       <c r="N3" t="n">
-        <v>197.7375255143646</v>
+        <v>199.0815872087224</v>
       </c>
       <c r="O3" t="n">
-        <v>14.06191756178241</v>
+        <v>14.10962746527074</v>
       </c>
       <c r="P3" t="n">
-        <v>353.6713256816133</v>
+        <v>353.4876359290819</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30978,28 +31150,28 @@
         <v>0.0557</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2500073098632093</v>
+        <v>-0.2305867457362398</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01483525579822165</v>
+        <v>0.01262966853625569</v>
       </c>
       <c r="M4" t="n">
-        <v>11.34767220877344</v>
+        <v>11.39721450015358</v>
       </c>
       <c r="N4" t="n">
-        <v>218.0469139115226</v>
+        <v>219.3649892610001</v>
       </c>
       <c r="O4" t="n">
-        <v>14.76641168028044</v>
+        <v>14.81097529742725</v>
       </c>
       <c r="P4" t="n">
-        <v>351.8883428230196</v>
+        <v>351.6947396799772</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31056,28 +31228,28 @@
         <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.517345850415579</v>
+        <v>-0.5070743411999828</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03765495532546037</v>
+        <v>0.03655796141724466</v>
       </c>
       <c r="M5" t="n">
-        <v>15.24814391704424</v>
+        <v>15.21525948902768</v>
       </c>
       <c r="N5" t="n">
-        <v>366.9803815397244</v>
+        <v>365.58158330682</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1567320161797</v>
+        <v>19.12018784705893</v>
       </c>
       <c r="P5" t="n">
-        <v>352.4358473441389</v>
+        <v>352.3351044545605</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31134,28 +31306,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8611667154606405</v>
+        <v>-0.8281373590270196</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07266084347827961</v>
+        <v>0.06743062712974124</v>
       </c>
       <c r="M6" t="n">
-        <v>18.27192098024256</v>
+        <v>18.35243749718599</v>
       </c>
       <c r="N6" t="n">
-        <v>532.5920151322007</v>
+        <v>536.2389307609114</v>
       </c>
       <c r="O6" t="n">
-        <v>23.07795517657924</v>
+        <v>23.15683334916308</v>
       </c>
       <c r="P6" t="n">
-        <v>352.6805376361215</v>
+        <v>352.3635348199923</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31212,28 +31384,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5579878424344795</v>
+        <v>-0.5396749581296326</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03568388761394026</v>
+        <v>0.03359010606995061</v>
       </c>
       <c r="M7" t="n">
-        <v>16.58763324937505</v>
+        <v>16.60204277563498</v>
       </c>
       <c r="N7" t="n">
-        <v>471.5217784122966</v>
+        <v>471.4579167821702</v>
       </c>
       <c r="O7" t="n">
-        <v>21.7145522268431</v>
+        <v>21.71308169703624</v>
       </c>
       <c r="P7" t="n">
-        <v>352.2233800388076</v>
+        <v>352.0445918801412</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31290,28 +31462,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3844298522968408</v>
+        <v>-0.3705388684440301</v>
       </c>
       <c r="J8" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02016250915820039</v>
+        <v>0.01884100057127536</v>
       </c>
       <c r="M8" t="n">
-        <v>15.48085386644036</v>
+        <v>15.49107654213881</v>
       </c>
       <c r="N8" t="n">
-        <v>379.526286804732</v>
+        <v>379.2110727405831</v>
       </c>
       <c r="O8" t="n">
-        <v>19.4814344134289</v>
+        <v>19.47334261857946</v>
       </c>
       <c r="P8" t="n">
-        <v>349.1597425724709</v>
+        <v>349.0180981767786</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31368,28 +31540,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.166491575373306</v>
+        <v>-0.1821210734170878</v>
       </c>
       <c r="J9" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0037261875706458</v>
+        <v>0.004485413440993069</v>
       </c>
       <c r="M9" t="n">
-        <v>16.07279014072144</v>
+        <v>16.09300717259494</v>
       </c>
       <c r="N9" t="n">
-        <v>389.5551476541362</v>
+        <v>389.8018127540661</v>
       </c>
       <c r="O9" t="n">
-        <v>19.73715145744533</v>
+        <v>19.74339921984221</v>
       </c>
       <c r="P9" t="n">
-        <v>343.3471475074094</v>
+        <v>343.5060937738129</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31446,28 +31618,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2519252994684368</v>
+        <v>-0.2460042299075916</v>
       </c>
       <c r="J10" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K10" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01320082529464539</v>
+        <v>0.01274324412256234</v>
       </c>
       <c r="M10" t="n">
-        <v>12.3902712878239</v>
+        <v>12.37597266966628</v>
       </c>
       <c r="N10" t="n">
-        <v>247.6877277746268</v>
+        <v>246.6737123815068</v>
       </c>
       <c r="O10" t="n">
-        <v>15.73809797194778</v>
+        <v>15.70584962303876</v>
       </c>
       <c r="P10" t="n">
-        <v>346.2718084976663</v>
+        <v>346.21134586512</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31524,28 +31696,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1680337477034804</v>
+        <v>-0.1621007417729939</v>
       </c>
       <c r="J11" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K11" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005859485220062632</v>
+        <v>0.005514202348456454</v>
       </c>
       <c r="M11" t="n">
-        <v>12.73026635561408</v>
+        <v>12.72075250689175</v>
       </c>
       <c r="N11" t="n">
-        <v>253.4754787759201</v>
+        <v>252.6482099028998</v>
       </c>
       <c r="O11" t="n">
-        <v>15.92091325194381</v>
+        <v>15.89491144684046</v>
       </c>
       <c r="P11" t="n">
-        <v>344.458268203265</v>
+        <v>344.3982329642063</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31602,28 +31774,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1557862030736263</v>
+        <v>-0.1431807930460376</v>
       </c>
       <c r="J12" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005503677438105092</v>
+        <v>0.004665611235635247</v>
       </c>
       <c r="M12" t="n">
-        <v>11.47186512080799</v>
+        <v>11.48680678596668</v>
       </c>
       <c r="N12" t="n">
-        <v>228.2343825041587</v>
+        <v>228.4442754371346</v>
       </c>
       <c r="O12" t="n">
-        <v>15.10742805722267</v>
+        <v>15.11437314072716</v>
       </c>
       <c r="P12" t="n">
-        <v>342.360532062837</v>
+        <v>342.2317047448511</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31680,28 +31852,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2917742246648464</v>
+        <v>-0.2780499668133047</v>
       </c>
       <c r="J13" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K13" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01955848145827688</v>
+        <v>0.01784248099290542</v>
       </c>
       <c r="M13" t="n">
-        <v>11.09463564003056</v>
+        <v>11.11324796844852</v>
       </c>
       <c r="N13" t="n">
-        <v>220.8560813457552</v>
+        <v>221.1190597538024</v>
       </c>
       <c r="O13" t="n">
-        <v>14.86122745084521</v>
+        <v>14.87007262099962</v>
       </c>
       <c r="P13" t="n">
-        <v>343.3254808702566</v>
+        <v>343.1848563666883</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31758,28 +31930,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3461943865300555</v>
+        <v>-0.3307066348395341</v>
       </c>
       <c r="J14" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K14" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02832483567284927</v>
+        <v>0.02597457908119261</v>
       </c>
       <c r="M14" t="n">
-        <v>11.43171068754734</v>
+        <v>11.45364255879049</v>
       </c>
       <c r="N14" t="n">
-        <v>213.4597059497624</v>
+        <v>213.8417586367461</v>
       </c>
       <c r="O14" t="n">
-        <v>14.61026029712552</v>
+        <v>14.62332925967087</v>
       </c>
       <c r="P14" t="n">
-        <v>344.9121660471091</v>
+        <v>344.7532449090973</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31836,28 +32008,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4554115341981536</v>
+        <v>-0.4401599517877076</v>
       </c>
       <c r="J15" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K15" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04379759050590382</v>
+        <v>0.04118724483017333</v>
       </c>
       <c r="M15" t="n">
-        <v>12.03880460703472</v>
+        <v>12.05970160117054</v>
       </c>
       <c r="N15" t="n">
-        <v>242.6991842469938</v>
+        <v>242.8093251041958</v>
       </c>
       <c r="O15" t="n">
-        <v>15.57880561041166</v>
+        <v>15.58234016777312</v>
       </c>
       <c r="P15" t="n">
-        <v>348.2435659510887</v>
+        <v>348.0901653766098</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31914,28 +32086,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.521647893459124</v>
+        <v>-0.4984285175268949</v>
       </c>
       <c r="J16" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K16" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01004535617621127</v>
+        <v>0.009247576739718877</v>
       </c>
       <c r="M16" t="n">
-        <v>19.36923565619699</v>
+        <v>19.37298305863163</v>
       </c>
       <c r="N16" t="n">
-        <v>1336.706009491813</v>
+        <v>1332.884486141991</v>
       </c>
       <c r="O16" t="n">
-        <v>36.56099026957301</v>
+        <v>36.50869055638658</v>
       </c>
       <c r="P16" t="n">
-        <v>341.7780503383917</v>
+        <v>341.5334272143815</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31992,28 +32164,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4375094452916835</v>
+        <v>-0.4148249855091615</v>
       </c>
       <c r="J17" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K17" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008571617773695639</v>
+        <v>0.00776594824164023</v>
       </c>
       <c r="M17" t="n">
-        <v>17.93305339605401</v>
+        <v>17.93673837747642</v>
       </c>
       <c r="N17" t="n">
-        <v>1147.704785354937</v>
+        <v>1145.143829815979</v>
       </c>
       <c r="O17" t="n">
-        <v>33.8777919197066</v>
+        <v>33.83997384478863</v>
       </c>
       <c r="P17" t="n">
-        <v>337.6707581933077</v>
+        <v>337.4404370723277</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32070,28 +32242,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5067868073901185</v>
+        <v>-0.4853931758426204</v>
       </c>
       <c r="J18" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K18" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01702964592371803</v>
+        <v>0.01573351395294109</v>
       </c>
       <c r="M18" t="n">
-        <v>14.97155419453758</v>
+        <v>14.98417681649104</v>
       </c>
       <c r="N18" t="n">
-        <v>785.9464583589851</v>
+        <v>784.9220542661606</v>
       </c>
       <c r="O18" t="n">
-        <v>28.03473663794588</v>
+        <v>28.01646041644377</v>
       </c>
       <c r="P18" t="n">
-        <v>340.3269224385551</v>
+        <v>340.1120393245845</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32148,28 +32320,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4291972830320104</v>
+        <v>-0.403238542403715</v>
       </c>
       <c r="J19" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K19" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01154385701650584</v>
+        <v>0.01025757073989775</v>
       </c>
       <c r="M19" t="n">
-        <v>15.10916578929325</v>
+        <v>15.13628431417268</v>
       </c>
       <c r="N19" t="n">
-        <v>864.9795281958422</v>
+        <v>864.5548493170245</v>
       </c>
       <c r="O19" t="n">
-        <v>29.41053430653449</v>
+        <v>29.40331357716379</v>
       </c>
       <c r="P19" t="n">
-        <v>339.0586725055335</v>
+        <v>338.8059852802183</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -32226,28 +32398,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2662267193810805</v>
+        <v>-0.2409394209520553</v>
       </c>
       <c r="J20" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K20" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01733430023567184</v>
+        <v>0.01414559181977104</v>
       </c>
       <c r="M20" t="n">
-        <v>11.61456286296284</v>
+        <v>11.69918709513245</v>
       </c>
       <c r="N20" t="n">
-        <v>224.2750708989282</v>
+        <v>226.8762930431809</v>
       </c>
       <c r="O20" t="n">
-        <v>14.97581620142716</v>
+        <v>15.06241325429564</v>
       </c>
       <c r="P20" t="n">
-        <v>340.1821397265521</v>
+        <v>339.9373040516411</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32304,28 +32476,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1364087102638221</v>
+        <v>-0.1176813264489083</v>
       </c>
       <c r="J21" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K21" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004918554047174006</v>
+        <v>0.003658326243019761</v>
       </c>
       <c r="M21" t="n">
-        <v>10.92704972436413</v>
+        <v>10.97422749867479</v>
       </c>
       <c r="N21" t="n">
-        <v>206.0615093765923</v>
+        <v>207.3139544617756</v>
       </c>
       <c r="O21" t="n">
-        <v>14.35484271514642</v>
+        <v>14.39840110782359</v>
       </c>
       <c r="P21" t="n">
-        <v>337.9171344978456</v>
+        <v>337.7322974353418</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -32382,28 +32554,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.07349458139185922</v>
+        <v>-0.05903472357838502</v>
       </c>
       <c r="J22" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K22" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001522512452794333</v>
+        <v>0.0009846387509363508</v>
       </c>
       <c r="M22" t="n">
-        <v>10.74997758657405</v>
+        <v>10.77461637214285</v>
       </c>
       <c r="N22" t="n">
-        <v>192.5304867128516</v>
+        <v>192.9946955236185</v>
       </c>
       <c r="O22" t="n">
-        <v>13.87553554688436</v>
+        <v>13.89225307585557</v>
       </c>
       <c r="P22" t="n">
-        <v>337.3209579396459</v>
+        <v>337.1783220266294</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -32460,28 +32632,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1935388830366494</v>
+        <v>-0.1769259098398261</v>
       </c>
       <c r="J23" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K23" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008607650154289104</v>
+        <v>0.007204551269719195</v>
       </c>
       <c r="M23" t="n">
-        <v>11.79315649566787</v>
+        <v>11.82454405917927</v>
       </c>
       <c r="N23" t="n">
-        <v>237.6178446613951</v>
+        <v>238.5315447070558</v>
       </c>
       <c r="O23" t="n">
-        <v>15.41485791894934</v>
+        <v>15.44446647531263</v>
       </c>
       <c r="P23" t="n">
-        <v>337.7339195884934</v>
+        <v>337.5723221616648</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -32538,28 +32710,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2421375385098321</v>
+        <v>-0.230334319398455</v>
       </c>
       <c r="J24" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K24" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009487070052172863</v>
+        <v>0.008645234375573962</v>
       </c>
       <c r="M24" t="n">
-        <v>14.37601684846452</v>
+        <v>14.3728816900238</v>
       </c>
       <c r="N24" t="n">
-        <v>329.9783479035227</v>
+        <v>329.4177585211892</v>
       </c>
       <c r="O24" t="n">
-        <v>18.16530616046762</v>
+        <v>18.149869380279</v>
       </c>
       <c r="P24" t="n">
-        <v>337.8104944899429</v>
+        <v>337.6947592112239</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32616,28 +32788,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1782846427347303</v>
+        <v>-0.1754069187302568</v>
       </c>
       <c r="J25" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K25" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005196729933612754</v>
+        <v>0.005075557095951977</v>
       </c>
       <c r="M25" t="n">
-        <v>14.62938384264483</v>
+        <v>14.57647877925737</v>
       </c>
       <c r="N25" t="n">
-        <v>341.7326598302162</v>
+        <v>340.2023332290503</v>
       </c>
       <c r="O25" t="n">
-        <v>18.48601254544138</v>
+        <v>18.4445746285744</v>
       </c>
       <c r="P25" t="n">
-        <v>341.4773776214697</v>
+        <v>341.4496924289597</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -32694,28 +32866,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09207453554227796</v>
+        <v>-0.08922976941369266</v>
       </c>
       <c r="J26" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K26" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001665961346260292</v>
+        <v>0.00157723860947856</v>
       </c>
       <c r="M26" t="n">
-        <v>12.93577041040647</v>
+        <v>12.89695121804821</v>
       </c>
       <c r="N26" t="n">
-        <v>276.7081890239697</v>
+        <v>275.6420104179971</v>
       </c>
       <c r="O26" t="n">
-        <v>16.63454805589769</v>
+        <v>16.60247000954969</v>
       </c>
       <c r="P26" t="n">
-        <v>341.6767135979208</v>
+        <v>341.6489254332975</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -32772,28 +32944,28 @@
         <v>0.0454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.125090039230545</v>
+        <v>-0.1199626970482554</v>
       </c>
       <c r="J27" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K27" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003019704458233852</v>
+        <v>0.002798064594844885</v>
       </c>
       <c r="M27" t="n">
-        <v>12.77044910670384</v>
+        <v>12.74770587313149</v>
       </c>
       <c r="N27" t="n">
-        <v>284.1010883008772</v>
+        <v>283.1431298707029</v>
       </c>
       <c r="O27" t="n">
-        <v>16.85529852304246</v>
+        <v>16.82685739734853</v>
       </c>
       <c r="P27" t="n">
-        <v>342.8227957067763</v>
+        <v>342.7727884997298</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -32850,28 +33022,28 @@
         <v>0.043</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2375180020227599</v>
+        <v>-0.2317812443547181</v>
       </c>
       <c r="J28" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K28" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01235436082970098</v>
+        <v>0.01186055888276216</v>
       </c>
       <c r="M28" t="n">
-        <v>12.58883607290951</v>
+        <v>12.56355361919024</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2810011101813</v>
+        <v>247.4337917843326</v>
       </c>
       <c r="O28" t="n">
-        <v>15.75693501637235</v>
+        <v>15.73002834658389</v>
       </c>
       <c r="P28" t="n">
-        <v>336.8463550404123</v>
+        <v>336.7905751464713</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -32928,28 +33100,28 @@
         <v>0.0371</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2986797336321951</v>
+        <v>-0.2879045520196282</v>
       </c>
       <c r="J29" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01701018323434378</v>
+        <v>0.01590918581424594</v>
       </c>
       <c r="M29" t="n">
-        <v>13.45610733865669</v>
+        <v>13.45011030876089</v>
       </c>
       <c r="N29" t="n">
-        <v>284.7945307145159</v>
+        <v>284.3796802157284</v>
       </c>
       <c r="O29" t="n">
-        <v>16.87585644388207</v>
+        <v>16.86356072173752</v>
       </c>
       <c r="P29" t="n">
-        <v>350.4764006683597</v>
+        <v>350.3714955209142</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -33006,28 +33178,28 @@
         <v>0.0381</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5683408690202678</v>
+        <v>-0.5476234015835655</v>
       </c>
       <c r="J30" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K30" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05455881974880461</v>
+        <v>0.05078106073059185</v>
       </c>
       <c r="M30" t="n">
-        <v>14.02098985171729</v>
+        <v>14.05617112252791</v>
       </c>
       <c r="N30" t="n">
-        <v>306.7968914306846</v>
+        <v>308.4031187266357</v>
       </c>
       <c r="O30" t="n">
-        <v>17.51561849980424</v>
+        <v>17.56140992991837</v>
       </c>
       <c r="P30" t="n">
-        <v>355.9763727380469</v>
+        <v>355.771320191102</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -33084,28 +33256,28 @@
         <v>0.0449</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5499393865396498</v>
+        <v>-0.5238401210066714</v>
       </c>
       <c r="J31" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K31" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06533195932313196</v>
+        <v>0.05913278026867241</v>
       </c>
       <c r="M31" t="n">
-        <v>12.40914914369735</v>
+        <v>12.48468277198788</v>
       </c>
       <c r="N31" t="n">
-        <v>235.821745079824</v>
+        <v>238.9766396849058</v>
       </c>
       <c r="O31" t="n">
-        <v>15.35648869630763</v>
+        <v>15.45886928869333</v>
       </c>
       <c r="P31" t="n">
-        <v>354.418259895515</v>
+        <v>354.1607353181349</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -33143,7 +33315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF316"/>
+  <dimension ref="A1:AF318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39352,7 +39524,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>-37.89742419849599,174.76733379403188</t>
+          <t>-37.89742419849598,174.76733379403188</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -64317,7 +64489,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>-37.90482094608458,174.77039271357745</t>
+          <t>-37.904820946084584,174.77039271357745</t>
         </is>
       </c>
       <c r="M243" t="inlineStr"/>
@@ -65648,7 +65820,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>-37.90293337127396,174.7690634616839</t>
+          <t>-37.90293337127397,174.7690634616839</t>
         </is>
       </c>
       <c r="P255" t="inlineStr"/>
@@ -73487,6 +73659,226 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-37.91164807804462,174.77285272547243</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-37.906854676394,174.77118397683697</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-37.90624495571107,174.7706693379603</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-37.90556970193858,174.77039581005724</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
+      <c r="S317" t="inlineStr"/>
+      <c r="T317" t="inlineStr"/>
+      <c r="U317" t="inlineStr"/>
+      <c r="V317" t="inlineStr"/>
+      <c r="W317" t="inlineStr"/>
+      <c r="X317" t="inlineStr"/>
+      <c r="Y317" t="inlineStr"/>
+      <c r="Z317" t="inlineStr"/>
+      <c r="AA317" t="inlineStr"/>
+      <c r="AB317" t="inlineStr"/>
+      <c r="AC317" t="inlineStr"/>
+      <c r="AD317" t="inlineStr"/>
+      <c r="AE317" t="inlineStr"/>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-37.91174505080862,174.77249589737153</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-37.91107414035518,174.77220656978253</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-37.910388417736534,174.7719717236229</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-37.90965883731732,174.77189823602257</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-37.909036015191184,174.77143189196946</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-37.908342459170456,174.77122580142043</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-37.90766166270997,174.77097273726136</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-37.90695942202365,174.77079855677334</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-37.90630742820448,174.77043946443166</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-37.905638810048615,174.77014152060895</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-37.90496416096893,174.76986574557282</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-37.90428382124238,174.7696108870971</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-37.903612245318975,174.7693237587244</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-37.902938035519846,174.76904629925536</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-37.90226308226544,174.76877155270392</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>-37.90158640141236,174.76850314026245</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>-37.90091462282856,174.76822066492554</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>-37.90024757216112,174.7679178343703</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>-37.899579080348126,174.76761640442732</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>-37.89888661553624,174.76741475123237</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>-37.89819620923561,174.76720450045704</t>
+        </is>
+      </c>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>-37.897519595021784,174.76693677974157</t>
+        </is>
+      </c>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>-37.89681632494639,174.76677948566856</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>-37.89612120094542,174.766587819134</t>
+        </is>
+      </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>-37.89544790037464,174.76630638567448</t>
+        </is>
+      </c>
+      <c r="AA318" t="inlineStr">
+        <is>
+          <t>-37.8947764736604,174.76601718352327</t>
+        </is>
+      </c>
+      <c r="AB318" t="inlineStr">
+        <is>
+          <t>-37.894073646773435,174.76585770090486</t>
+        </is>
+      </c>
+      <c r="AC318" t="inlineStr">
+        <is>
+          <t>-37.89344237044189,174.76540254561894</t>
+        </is>
+      </c>
+      <c r="AD318" t="inlineStr">
+        <is>
+          <t>-37.89279132292456,174.76502905865226</t>
+        </is>
+      </c>
+      <c r="AE318" t="inlineStr">
+        <is>
+          <t>-37.892119689032256,174.76474060909277</t>
+        </is>
+      </c>
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF318"/>
+  <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27452,6 +27452,178 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>353.8245454545454</v>
+      </c>
+      <c r="C319" t="n">
+        <v>355.58</v>
+      </c>
+      <c r="D319" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="E319" t="n">
+        <v>318.79</v>
+      </c>
+      <c r="F319" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="G319" t="n">
+        <v>367.1466666666667</v>
+      </c>
+      <c r="H319" t="n">
+        <v>361.42</v>
+      </c>
+      <c r="I319" t="n">
+        <v>357.48</v>
+      </c>
+      <c r="J319" t="n">
+        <v>354.71</v>
+      </c>
+      <c r="K319" t="n">
+        <v>351.6345454545454</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
+      <c r="S319" t="inlineStr"/>
+      <c r="T319" t="inlineStr"/>
+      <c r="U319" t="inlineStr"/>
+      <c r="V319" t="inlineStr"/>
+      <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr"/>
+      <c r="Y319" t="inlineStr"/>
+      <c r="Z319" t="inlineStr"/>
+      <c r="AA319" t="inlineStr"/>
+      <c r="AB319" t="n">
+        <v>326.65</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>333.23</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>345.52</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>362.7427272727273</v>
+      </c>
+      <c r="C320" t="n">
+        <v>363.72</v>
+      </c>
+      <c r="D320" t="n">
+        <v>363.09</v>
+      </c>
+      <c r="E320" t="n">
+        <v>332.4028571428572</v>
+      </c>
+      <c r="F320" t="n">
+        <v>351.1828571428572</v>
+      </c>
+      <c r="G320" t="n">
+        <v>339.3933333333333</v>
+      </c>
+      <c r="H320" t="n">
+        <v>341.6928571428572</v>
+      </c>
+      <c r="I320" t="n">
+        <v>343.28</v>
+      </c>
+      <c r="J320" t="n">
+        <v>342.4</v>
+      </c>
+      <c r="K320" t="n">
+        <v>342.6827272727273</v>
+      </c>
+      <c r="L320" t="n">
+        <v>336.89</v>
+      </c>
+      <c r="M320" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="N320" t="n">
+        <v>332.13</v>
+      </c>
+      <c r="O320" t="n">
+        <v>339.6888888888889</v>
+      </c>
+      <c r="P320" t="n">
+        <v>335.3428571428572</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>335.43</v>
+      </c>
+      <c r="R320" t="n">
+        <v>337.26</v>
+      </c>
+      <c r="S320" t="n">
+        <v>340.2088888888889</v>
+      </c>
+      <c r="T320" t="n">
+        <v>339.94</v>
+      </c>
+      <c r="U320" t="n">
+        <v>340.26</v>
+      </c>
+      <c r="V320" t="n">
+        <v>336.32</v>
+      </c>
+      <c r="W320" t="n">
+        <v>334.7788888888889</v>
+      </c>
+      <c r="X320" t="n">
+        <v>315.39</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>342.4833333333333</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>333.3388888888889</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>319.26</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>322.5028571428572</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>327.9328571428572</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>338.28</v>
+      </c>
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27463,7 +27635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30821,6 +30993,26 @@
       </c>
       <c r="B335" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -30994,28 +31186,28 @@
         <v>0.0603</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05544425379716858</v>
+        <v>-0.04694634853570018</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006012962894144103</v>
+        <v>0.0004373926535425898</v>
       </c>
       <c r="M2" t="n">
-        <v>13.18210587221931</v>
+        <v>13.12120147910253</v>
       </c>
       <c r="N2" t="n">
-        <v>272.1103987872211</v>
+        <v>270.2331078167441</v>
       </c>
       <c r="O2" t="n">
-        <v>16.49576911778354</v>
+        <v>16.43876843978113</v>
       </c>
       <c r="P2" t="n">
-        <v>354.2706359467707</v>
+        <v>354.1832066426995</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31072,28 +31264,28 @@
         <v>0.0583</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1256952704949228</v>
+        <v>-0.1109234222964467</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004191495801795009</v>
+        <v>0.003306534082077039</v>
       </c>
       <c r="M3" t="n">
-        <v>10.76656730204739</v>
+        <v>10.75131710516039</v>
       </c>
       <c r="N3" t="n">
-        <v>199.0815872087224</v>
+        <v>198.2834907137817</v>
       </c>
       <c r="O3" t="n">
-        <v>14.10962746527074</v>
+        <v>14.08131708022306</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4876359290819</v>
+        <v>353.3368280435196</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31150,28 +31342,28 @@
         <v>0.0557</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2305867457362398</v>
+        <v>-0.2074215617977597</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K4" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01262966853625569</v>
+        <v>0.01034697913200955</v>
       </c>
       <c r="M4" t="n">
-        <v>11.39721450015358</v>
+        <v>11.41715102760177</v>
       </c>
       <c r="N4" t="n">
-        <v>219.3649892610001</v>
+        <v>219.2012233838408</v>
       </c>
       <c r="O4" t="n">
-        <v>14.81097529742725</v>
+        <v>14.80544573404802</v>
       </c>
       <c r="P4" t="n">
-        <v>351.6947396799772</v>
+        <v>351.4617153109602</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31228,28 +31420,28 @@
         <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5070743411999828</v>
+        <v>-0.5346782150389069</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K5" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03655796141724466</v>
+        <v>0.04107528900278845</v>
       </c>
       <c r="M5" t="n">
-        <v>15.21525948902768</v>
+        <v>15.21074000629301</v>
       </c>
       <c r="N5" t="n">
-        <v>365.58158330682</v>
+        <v>364.1681637424245</v>
       </c>
       <c r="O5" t="n">
-        <v>19.12018784705893</v>
+        <v>19.08319060698248</v>
       </c>
       <c r="P5" t="n">
-        <v>352.3351044545605</v>
+        <v>352.6082365573591</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31306,28 +31498,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8281373590270196</v>
+        <v>-0.7963297901506174</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06743062712974124</v>
+        <v>0.06349316018218387</v>
       </c>
       <c r="M6" t="n">
-        <v>18.35243749718599</v>
+        <v>18.3332922985237</v>
       </c>
       <c r="N6" t="n">
-        <v>536.2389307609114</v>
+        <v>533.9197024323255</v>
       </c>
       <c r="O6" t="n">
-        <v>23.15683334916308</v>
+        <v>23.10670254346832</v>
       </c>
       <c r="P6" t="n">
-        <v>352.3635348199923</v>
+        <v>352.0552110009033</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31384,28 +31576,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5396749581296326</v>
+        <v>-0.514319050960743</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K7" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03359010606995061</v>
+        <v>0.03087984203962579</v>
       </c>
       <c r="M7" t="n">
-        <v>16.60204277563498</v>
+        <v>16.57783142089616</v>
       </c>
       <c r="N7" t="n">
-        <v>471.4579167821702</v>
+        <v>470.9135889005269</v>
       </c>
       <c r="O7" t="n">
-        <v>21.71308169703624</v>
+        <v>21.70054351624693</v>
       </c>
       <c r="P7" t="n">
-        <v>352.0445918801412</v>
+        <v>351.7946444543263</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31462,28 +31654,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3705388684440301</v>
+        <v>-0.3516354483553878</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K8" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01884100057127536</v>
+        <v>0.0171783889497481</v>
       </c>
       <c r="M8" t="n">
-        <v>15.49107654213881</v>
+        <v>15.46341728828799</v>
       </c>
       <c r="N8" t="n">
-        <v>379.2110727405831</v>
+        <v>378.0297316439513</v>
       </c>
       <c r="O8" t="n">
-        <v>19.47334261857946</v>
+        <v>19.44298669556587</v>
       </c>
       <c r="P8" t="n">
-        <v>349.0180981767786</v>
+        <v>348.823561679762</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31540,28 +31732,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1821210734170878</v>
+        <v>-0.1641851299283093</v>
       </c>
       <c r="J9" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K9" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004485413440993069</v>
+        <v>0.003692433388881367</v>
       </c>
       <c r="M9" t="n">
-        <v>16.09300717259494</v>
+        <v>16.04767328677086</v>
       </c>
       <c r="N9" t="n">
-        <v>389.8018127540661</v>
+        <v>388.071585011819</v>
       </c>
       <c r="O9" t="n">
-        <v>19.74339921984221</v>
+        <v>19.69953260896865</v>
       </c>
       <c r="P9" t="n">
-        <v>343.5060937738129</v>
+        <v>343.3217029936309</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31618,28 +31810,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2460042299075916</v>
+        <v>-0.2322568037962471</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K10" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01274324412256234</v>
+        <v>0.01151608355095302</v>
       </c>
       <c r="M10" t="n">
-        <v>12.37597266966628</v>
+        <v>12.34312901644163</v>
       </c>
       <c r="N10" t="n">
-        <v>246.6737123815068</v>
+        <v>245.5371839040615</v>
       </c>
       <c r="O10" t="n">
-        <v>15.70584962303876</v>
+        <v>15.66962615712518</v>
       </c>
       <c r="P10" t="n">
-        <v>346.21134586512</v>
+        <v>346.0698433823893</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31696,28 +31888,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1621007417729939</v>
+        <v>-0.1513749310290906</v>
       </c>
       <c r="J11" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005514202348456454</v>
+        <v>0.004878508285308225</v>
       </c>
       <c r="M11" t="n">
-        <v>12.72075250689175</v>
+        <v>12.66810677995881</v>
       </c>
       <c r="N11" t="n">
-        <v>252.6482099028998</v>
+        <v>251.1178319695156</v>
       </c>
       <c r="O11" t="n">
-        <v>15.89491144684046</v>
+        <v>15.84669782539932</v>
       </c>
       <c r="P11" t="n">
-        <v>344.3982329642063</v>
+        <v>344.2888320777741</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31774,28 +31966,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1431807930460376</v>
+        <v>-0.1444362388078977</v>
       </c>
       <c r="J12" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K12" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004665611235635247</v>
+        <v>0.004783745163117525</v>
       </c>
       <c r="M12" t="n">
-        <v>11.48680678596668</v>
+        <v>11.44924305580973</v>
       </c>
       <c r="N12" t="n">
-        <v>228.4442754371346</v>
+        <v>227.5695096265363</v>
       </c>
       <c r="O12" t="n">
-        <v>15.11437314072716</v>
+        <v>15.08540717470153</v>
       </c>
       <c r="P12" t="n">
-        <v>342.2317047448511</v>
+        <v>342.2446617693812</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31852,28 +32044,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2780499668133047</v>
+        <v>-0.2874749203347769</v>
       </c>
       <c r="J13" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K13" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01784248099290542</v>
+        <v>0.01915908780408937</v>
       </c>
       <c r="M13" t="n">
-        <v>11.11324796844852</v>
+        <v>11.11788187504209</v>
       </c>
       <c r="N13" t="n">
-        <v>221.1190597538024</v>
+        <v>220.7453999468203</v>
       </c>
       <c r="O13" t="n">
-        <v>14.87007262099962</v>
+        <v>14.85750315318224</v>
       </c>
       <c r="P13" t="n">
-        <v>343.1848563666883</v>
+        <v>343.2823716392216</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31930,28 +32122,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3307066348395341</v>
+        <v>-0.3344378353467756</v>
       </c>
       <c r="J14" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02597457908119261</v>
+        <v>0.02677705296678279</v>
       </c>
       <c r="M14" t="n">
-        <v>11.45364255879049</v>
+        <v>11.420287936324</v>
       </c>
       <c r="N14" t="n">
-        <v>213.8417586367461</v>
+        <v>212.9215332021473</v>
       </c>
       <c r="O14" t="n">
-        <v>14.62332925967087</v>
+        <v>14.59183104350332</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7532449090973</v>
+        <v>344.7919109856449</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32008,28 +32200,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4401599517877076</v>
+        <v>-0.4374590524483867</v>
       </c>
       <c r="J15" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K15" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04118724483017333</v>
+        <v>0.04107374120773577</v>
       </c>
       <c r="M15" t="n">
-        <v>12.05970160117054</v>
+        <v>12.0137106808223</v>
       </c>
       <c r="N15" t="n">
-        <v>242.8093251041958</v>
+        <v>241.6422135666938</v>
       </c>
       <c r="O15" t="n">
-        <v>15.58234016777312</v>
+        <v>15.54484524100172</v>
       </c>
       <c r="P15" t="n">
-        <v>348.0901653766098</v>
+        <v>348.062719745393</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32086,28 +32278,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4984285175268949</v>
+        <v>-0.4920003509335478</v>
       </c>
       <c r="J16" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K16" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009247576739718877</v>
+        <v>0.009099296065806395</v>
       </c>
       <c r="M16" t="n">
-        <v>19.37298305863163</v>
+        <v>19.30453878166928</v>
       </c>
       <c r="N16" t="n">
-        <v>1332.884486141991</v>
+        <v>1326.529558901173</v>
       </c>
       <c r="O16" t="n">
-        <v>36.50869055638658</v>
+        <v>36.42155349379228</v>
       </c>
       <c r="P16" t="n">
-        <v>341.5334272143815</v>
+        <v>341.4650583980347</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32164,28 +32356,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4148249855091615</v>
+        <v>-0.4068659827443853</v>
       </c>
       <c r="J17" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K17" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00776594824164023</v>
+        <v>0.00754245148046262</v>
       </c>
       <c r="M17" t="n">
-        <v>17.93673837747642</v>
+        <v>17.88459130177516</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.143829815979</v>
+        <v>1140.135696830736</v>
       </c>
       <c r="O17" t="n">
-        <v>33.83997384478863</v>
+        <v>33.76589546910812</v>
       </c>
       <c r="P17" t="n">
-        <v>337.4404370723277</v>
+        <v>337.3588541659913</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32242,28 +32434,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4853931758426204</v>
+        <v>-0.4767832360934722</v>
       </c>
       <c r="J18" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K18" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01573351395294109</v>
+        <v>0.01532095904289654</v>
       </c>
       <c r="M18" t="n">
-        <v>14.98417681649104</v>
+        <v>14.94785265948274</v>
       </c>
       <c r="N18" t="n">
-        <v>784.9220542661606</v>
+        <v>781.6937154222429</v>
       </c>
       <c r="O18" t="n">
-        <v>28.01646041644377</v>
+        <v>27.9587860148155</v>
       </c>
       <c r="P18" t="n">
-        <v>340.1120393245845</v>
+        <v>340.0247017650692</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32320,28 +32512,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.403238542403715</v>
+        <v>-0.3923440005497048</v>
       </c>
       <c r="J19" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K19" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01025757073989775</v>
+        <v>0.00980450072417427</v>
       </c>
       <c r="M19" t="n">
-        <v>15.13628431417268</v>
+        <v>15.10610328906207</v>
       </c>
       <c r="N19" t="n">
-        <v>864.5548493170245</v>
+        <v>861.0178202675208</v>
       </c>
       <c r="O19" t="n">
-        <v>29.40331357716379</v>
+        <v>29.34310515721744</v>
       </c>
       <c r="P19" t="n">
-        <v>338.8059852802183</v>
+        <v>338.698869555309</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -32398,28 +32590,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2409394209520553</v>
+        <v>-0.2352379813695332</v>
       </c>
       <c r="J20" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K20" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01414559181977104</v>
+        <v>0.01361263295202386</v>
       </c>
       <c r="M20" t="n">
-        <v>11.69918709513245</v>
+        <v>11.67326082601579</v>
       </c>
       <c r="N20" t="n">
-        <v>226.8762930431809</v>
+        <v>225.9395901404588</v>
       </c>
       <c r="O20" t="n">
-        <v>15.06241325429564</v>
+        <v>15.03128704204862</v>
       </c>
       <c r="P20" t="n">
-        <v>339.9373040516411</v>
+        <v>339.8815246588101</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32476,28 +32668,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1176813264489083</v>
+        <v>-0.1129408669942846</v>
       </c>
       <c r="J21" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K21" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003658326243019761</v>
+        <v>0.003398303478928666</v>
       </c>
       <c r="M21" t="n">
-        <v>10.97422749867479</v>
+        <v>10.94850694870096</v>
       </c>
       <c r="N21" t="n">
-        <v>207.3139544617756</v>
+        <v>206.5058823240901</v>
       </c>
       <c r="O21" t="n">
-        <v>14.39840110782359</v>
+        <v>14.37031253397399</v>
       </c>
       <c r="P21" t="n">
-        <v>337.7322974353418</v>
+        <v>337.6850238220815</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -32554,28 +32746,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.05903472357838502</v>
+        <v>-0.05848529237707657</v>
       </c>
       <c r="J22" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K22" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009846387509363508</v>
+        <v>0.0009749495024296007</v>
       </c>
       <c r="M22" t="n">
-        <v>10.77461637214285</v>
+        <v>10.72984295036893</v>
       </c>
       <c r="N22" t="n">
-        <v>192.9946955236185</v>
+        <v>192.1463683958148</v>
       </c>
       <c r="O22" t="n">
-        <v>13.89225307585557</v>
+        <v>13.86168706888937</v>
       </c>
       <c r="P22" t="n">
-        <v>337.1783220266294</v>
+        <v>337.1728473486101</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -32632,28 +32824,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1769259098398261</v>
+        <v>-0.1755764087086319</v>
       </c>
       <c r="J23" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K23" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007204551269719195</v>
+        <v>0.007153787241974241</v>
       </c>
       <c r="M23" t="n">
-        <v>11.82454405917927</v>
+        <v>11.78277612443279</v>
       </c>
       <c r="N23" t="n">
-        <v>238.5315447070558</v>
+        <v>237.5741224460034</v>
       </c>
       <c r="O23" t="n">
-        <v>15.44446647531263</v>
+        <v>15.41343966952229</v>
       </c>
       <c r="P23" t="n">
-        <v>337.5723221616648</v>
+        <v>337.5590621914443</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -32710,28 +32902,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.230334319398455</v>
+        <v>-0.2440259012425521</v>
       </c>
       <c r="J24" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K24" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008645234375573962</v>
+        <v>0.009746271266935391</v>
       </c>
       <c r="M24" t="n">
-        <v>14.3728816900238</v>
+        <v>14.38341416765004</v>
       </c>
       <c r="N24" t="n">
-        <v>329.4177585211892</v>
+        <v>329.1438776164434</v>
       </c>
       <c r="O24" t="n">
-        <v>18.149869380279</v>
+        <v>18.14232282858078</v>
       </c>
       <c r="P24" t="n">
-        <v>337.6947592112239</v>
+        <v>337.8303172071065</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32788,28 +32980,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1754069187302568</v>
+        <v>-0.1706545264908562</v>
       </c>
       <c r="J25" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K25" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005075557095951977</v>
+        <v>0.004847566159065342</v>
       </c>
       <c r="M25" t="n">
-        <v>14.57647877925737</v>
+        <v>14.53336188783938</v>
       </c>
       <c r="N25" t="n">
-        <v>340.2023332290503</v>
+        <v>338.7737045268343</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4445746285744</v>
+        <v>18.40580627212061</v>
       </c>
       <c r="P25" t="n">
-        <v>341.4496924289597</v>
+        <v>341.4034937608108</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -32866,28 +33058,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.08922976941369266</v>
+        <v>-0.09391692296867196</v>
       </c>
       <c r="J26" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K26" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00157723860947856</v>
+        <v>0.00176064311837687</v>
       </c>
       <c r="M26" t="n">
-        <v>12.89695121804821</v>
+        <v>12.87114046237136</v>
       </c>
       <c r="N26" t="n">
-        <v>275.6420104179971</v>
+        <v>274.674955795448</v>
       </c>
       <c r="O26" t="n">
-        <v>16.60247000954969</v>
+        <v>16.57332060256628</v>
       </c>
       <c r="P26" t="n">
-        <v>341.6489254332975</v>
+        <v>341.6951646238956</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -32944,28 +33136,28 @@
         <v>0.0454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1199626970482554</v>
+        <v>-0.1354968068930589</v>
       </c>
       <c r="J27" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K27" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002798064594844885</v>
+        <v>0.00357483682637505</v>
       </c>
       <c r="M27" t="n">
-        <v>12.74770587313149</v>
+        <v>12.77412734923975</v>
       </c>
       <c r="N27" t="n">
-        <v>283.1431298707029</v>
+        <v>283.6610136283718</v>
       </c>
       <c r="O27" t="n">
-        <v>16.82685739734853</v>
+        <v>16.84223897314047</v>
       </c>
       <c r="P27" t="n">
-        <v>342.7727884997298</v>
+        <v>342.9258334574625</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -33022,28 +33214,28 @@
         <v>0.043</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2317812443547181</v>
+        <v>-0.2463778290821915</v>
       </c>
       <c r="J28" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K28" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01186055888276216</v>
+        <v>0.01355996552752614</v>
       </c>
       <c r="M28" t="n">
-        <v>12.56355361919024</v>
+        <v>12.53722722304907</v>
       </c>
       <c r="N28" t="n">
-        <v>247.4337917843326</v>
+        <v>246.2297663541328</v>
       </c>
       <c r="O28" t="n">
-        <v>15.73002834658389</v>
+        <v>15.69171011566721</v>
       </c>
       <c r="P28" t="n">
-        <v>336.7905751464713</v>
+        <v>336.9339028255619</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -33100,28 +33292,28 @@
         <v>0.0371</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2879045520196282</v>
+        <v>-0.3114906755062652</v>
       </c>
       <c r="J29" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K29" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01590918581424594</v>
+        <v>0.0187400928999587</v>
       </c>
       <c r="M29" t="n">
-        <v>13.45011030876089</v>
+        <v>13.47621733767985</v>
       </c>
       <c r="N29" t="n">
-        <v>284.3796802157284</v>
+        <v>284.1084319575635</v>
       </c>
       <c r="O29" t="n">
-        <v>16.86356072173752</v>
+        <v>16.85551636579442</v>
       </c>
       <c r="P29" t="n">
-        <v>350.3714955209142</v>
+        <v>350.6034001227054</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -33178,28 +33370,28 @@
         <v>0.0381</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5476234015835655</v>
+        <v>-0.5554845804116157</v>
       </c>
       <c r="J30" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K30" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05078106073059185</v>
+        <v>0.0528421106551451</v>
       </c>
       <c r="M30" t="n">
-        <v>14.05617112252791</v>
+        <v>14.01724560339914</v>
       </c>
       <c r="N30" t="n">
-        <v>308.4031187266357</v>
+        <v>306.6435951525412</v>
       </c>
       <c r="O30" t="n">
-        <v>17.56140992991837</v>
+        <v>17.51124196487905</v>
       </c>
       <c r="P30" t="n">
-        <v>355.771320191102</v>
+        <v>355.8499798908566</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -33256,28 +33448,28 @@
         <v>0.0449</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5238401210066714</v>
+        <v>-0.5215140281883321</v>
       </c>
       <c r="J31" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K31" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05913278026867241</v>
+        <v>0.05959046001042623</v>
       </c>
       <c r="M31" t="n">
-        <v>12.48468277198788</v>
+        <v>12.40610275645451</v>
       </c>
       <c r="N31" t="n">
-        <v>238.9766396849058</v>
+        <v>236.9726024634264</v>
       </c>
       <c r="O31" t="n">
-        <v>15.45886928869333</v>
+        <v>15.39391446200174</v>
       </c>
       <c r="P31" t="n">
-        <v>354.1607353181349</v>
+        <v>354.1375979361994</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -33315,7 +33507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF318"/>
+  <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73879,6 +74071,266 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-37.91169131420286,174.77269363113336</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-37.91102333024669,174.77239353467772</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-37.910352283709585,174.77210468488119</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-37.90956952518435,174.77222687059972</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-37.90897579244214,174.77165349029124</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-37.90836461861294,174.7711442624697</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-37.90767473028586,174.77092465335988</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-37.906990059082474,174.77068582414788</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-37.90630880218511,174.77043440871546</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-37.90562664627366,174.7701862784823</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
+      <c r="S319" t="inlineStr"/>
+      <c r="T319" t="inlineStr"/>
+      <c r="U319" t="inlineStr"/>
+      <c r="V319" t="inlineStr"/>
+      <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr"/>
+      <c r="Y319" t="inlineStr"/>
+      <c r="Z319" t="inlineStr"/>
+      <c r="AA319" t="inlineStr"/>
+      <c r="AB319" t="inlineStr">
+        <is>
+          <t>-37.894043986912784,174.76598025472035</t>
+        </is>
+      </c>
+      <c r="AC319" t="inlineStr">
+        <is>
+          <t>-37.893380867049075,174.76565667702857</t>
+        </is>
+      </c>
+      <c r="AD319" t="inlineStr">
+        <is>
+          <t>-37.892732767694035,174.7652710090451</t>
+        </is>
+      </c>
+      <c r="AE319" t="inlineStr">
+        <is>
+          <t>-37.892053449719796,174.7650143097854</t>
+        </is>
+      </c>
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-37.91171738655683,174.7725976932805</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-37.911047127422364,174.77230596887406</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-37.91037216328957,174.7720315346911</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-37.909609322130414,174.77208043353164</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-37.908991090395574,174.77159719943555</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-37.90828348399036,174.77144280808955</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-37.90761705990898,174.7711368585942</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-37.90694854701165,174.77083857252924</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-37.90627281551565,174.7705668253885</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-37.9056004769595,174.7702825709317</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-37.904910371612246,174.77006366807743</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-37.90420097425474,174.76991572807609</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-37.90355009593378,174.76955244142925</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-37.902899003241814,174.76918992098518</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-37.90221310280906,174.7689554547096</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>-37.90154015566181,174.76867330352232</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>-37.900875442779466,174.76837366202724</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>-37.90020566459131,174.76809217933967</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>-37.89952419572882,174.76784492913066</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>-37.89884422393946,174.76759125782817</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>-37.89815311219682,174.76738394362133</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>-37.897468237881554,174.76715051494898</t>
+        </is>
+      </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>-37.89673637818331,174.7671109322725</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>-37.89612692948538,174.7665641486994</t>
+        </is>
+      </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>-37.89542244520239,174.7664115665474</t>
+        </is>
+      </c>
+      <c r="AA320" t="inlineStr">
+        <is>
+          <t>-37.894704968479594,174.76631264187716</t>
+        </is>
+      </c>
+      <c r="AB320" t="inlineStr">
+        <is>
+          <t>-37.89401806403925,174.76608736688823</t>
+        </is>
+      </c>
+      <c r="AC320" t="inlineStr">
+        <is>
+          <t>-37.893352635987924,174.7657733265994</t>
+        </is>
+      </c>
+      <c r="AD320" t="inlineStr">
+        <is>
+          <t>-37.89268648333911,174.7654622544296</t>
+        </is>
+      </c>
+      <c r="AE320" t="inlineStr">
+        <is>
+          <t>-37.89203326463217,174.76509771390712</t>
+        </is>
+      </c>
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF320"/>
+  <dimension ref="A1:AF321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27624,6 +27624,92 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="n">
+        <v>326.0742857142857</v>
+      </c>
+      <c r="F321" t="n">
+        <v>348.8042857142857</v>
+      </c>
+      <c r="G321" t="n">
+        <v>348.4366666666667</v>
+      </c>
+      <c r="H321" t="n">
+        <v>338.0242857142857</v>
+      </c>
+      <c r="I321" t="n">
+        <v>334.95</v>
+      </c>
+      <c r="J321" t="n">
+        <v>341.11</v>
+      </c>
+      <c r="K321" t="n">
+        <v>347.38</v>
+      </c>
+      <c r="L321" t="n">
+        <v>346.0700000000001</v>
+      </c>
+      <c r="M321" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="N321" t="n">
+        <v>328.24</v>
+      </c>
+      <c r="O321" t="n">
+        <v>335.6811111111111</v>
+      </c>
+      <c r="P321" t="n">
+        <v>340.1542857142857</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>341.37</v>
+      </c>
+      <c r="R321" t="n">
+        <v>340.4</v>
+      </c>
+      <c r="S321" t="n">
+        <v>349.4111111111111</v>
+      </c>
+      <c r="T321" t="n">
+        <v>350.11</v>
+      </c>
+      <c r="U321" t="n">
+        <v>345.33</v>
+      </c>
+      <c r="V321" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="W321" t="n">
+        <v>333.8511111111111</v>
+      </c>
+      <c r="X321" t="n">
+        <v>318.23</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>327.0666666666667</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>333.6611111111111</v>
+      </c>
+      <c r="AA321" t="inlineStr"/>
+      <c r="AB321" t="inlineStr"/>
+      <c r="AC321" t="inlineStr"/>
+      <c r="AD321" t="inlineStr"/>
+      <c r="AE321" t="inlineStr"/>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27635,7 +27721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31013,6 +31099,16 @@
       </c>
       <c r="B337" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -31189,7 +31285,7 @@
         <v>-0.04694634853570018</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
         <v>238</v>
@@ -31267,7 +31363,7 @@
         <v>-0.1109234222964467</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K3" t="n">
         <v>242</v>
@@ -31345,7 +31441,7 @@
         <v>-0.2074215617977597</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
         <v>237</v>
@@ -31420,28 +31516,28 @@
         <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5346782150389069</v>
+        <v>-0.5474045245685214</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04107528900278845</v>
+        <v>0.04331341261080646</v>
       </c>
       <c r="M5" t="n">
-        <v>15.21074000629301</v>
+        <v>15.20272552474998</v>
       </c>
       <c r="N5" t="n">
-        <v>364.1681637424245</v>
+        <v>363.1219118706402</v>
       </c>
       <c r="O5" t="n">
-        <v>19.08319060698248</v>
+        <v>19.05575797155915</v>
       </c>
       <c r="P5" t="n">
-        <v>352.6082365573591</v>
+        <v>352.7345308958881</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31498,28 +31594,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7963297901506174</v>
+        <v>-0.7807803036892579</v>
       </c>
       <c r="J6" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K6" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06349316018218387</v>
+        <v>0.06158536092548883</v>
       </c>
       <c r="M6" t="n">
-        <v>18.3332922985237</v>
+        <v>18.32163751848825</v>
       </c>
       <c r="N6" t="n">
-        <v>533.9197024323255</v>
+        <v>532.7272629066575</v>
       </c>
       <c r="O6" t="n">
-        <v>23.10670254346832</v>
+        <v>23.08088522796857</v>
       </c>
       <c r="P6" t="n">
-        <v>352.0552110009033</v>
+        <v>351.9040595370879</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31576,28 +31672,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.514319050960743</v>
+        <v>-0.5060803296485791</v>
       </c>
       <c r="J7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K7" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03087984203962579</v>
+        <v>0.03015166656603707</v>
       </c>
       <c r="M7" t="n">
-        <v>16.57783142089616</v>
+        <v>16.54313618069851</v>
       </c>
       <c r="N7" t="n">
-        <v>470.9135889005269</v>
+        <v>469.1691345845028</v>
       </c>
       <c r="O7" t="n">
-        <v>21.70054351624693</v>
+        <v>21.66031243044529</v>
       </c>
       <c r="P7" t="n">
-        <v>351.7946444543263</v>
+        <v>351.7131423498544</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31654,28 +31750,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3516354483553878</v>
+        <v>-0.3530134178301373</v>
       </c>
       <c r="J8" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K8" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0171783889497481</v>
+        <v>0.01744486745319029</v>
       </c>
       <c r="M8" t="n">
-        <v>15.46341728828799</v>
+        <v>15.40590073101603</v>
       </c>
       <c r="N8" t="n">
-        <v>378.0297316439513</v>
+        <v>376.4608962163778</v>
       </c>
       <c r="O8" t="n">
-        <v>19.44298669556587</v>
+        <v>19.40260024368842</v>
       </c>
       <c r="P8" t="n">
-        <v>348.823561679762</v>
+        <v>348.8377892260993</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31732,28 +31828,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1641851299283093</v>
+        <v>-0.1673932483196345</v>
       </c>
       <c r="J9" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K9" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003692433388881367</v>
+        <v>0.003866917120640689</v>
       </c>
       <c r="M9" t="n">
-        <v>16.04767328677086</v>
+        <v>15.99989560492509</v>
       </c>
       <c r="N9" t="n">
-        <v>388.071585011819</v>
+        <v>386.5447320156796</v>
       </c>
       <c r="O9" t="n">
-        <v>19.69953260896865</v>
+        <v>19.66074088165753</v>
       </c>
       <c r="P9" t="n">
-        <v>343.3217029936309</v>
+        <v>343.3547880700664</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31810,28 +31906,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2322568037962471</v>
+        <v>-0.2314612087984785</v>
       </c>
       <c r="J10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K10" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01151608355095302</v>
+        <v>0.01152925004130578</v>
       </c>
       <c r="M10" t="n">
-        <v>12.34312901644163</v>
+        <v>12.29574810815981</v>
       </c>
       <c r="N10" t="n">
-        <v>245.5371839040615</v>
+        <v>244.5182886860105</v>
       </c>
       <c r="O10" t="n">
-        <v>15.66962615712518</v>
+        <v>15.6370805678685</v>
       </c>
       <c r="P10" t="n">
-        <v>346.0698433823893</v>
+        <v>346.0616284522311</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31888,28 +31984,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1513749310290906</v>
+        <v>-0.1459941753878197</v>
       </c>
       <c r="J11" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004878508285308225</v>
+        <v>0.00457156378600676</v>
       </c>
       <c r="M11" t="n">
-        <v>12.66810677995881</v>
+        <v>12.64202896766621</v>
       </c>
       <c r="N11" t="n">
-        <v>251.1178319695156</v>
+        <v>250.2859711934689</v>
       </c>
       <c r="O11" t="n">
-        <v>15.84669782539932</v>
+        <v>15.82042891938992</v>
       </c>
       <c r="P11" t="n">
-        <v>344.2888320777741</v>
+        <v>344.2337761764005</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31966,28 +32062,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1444362388078977</v>
+        <v>-0.1388095142159592</v>
       </c>
       <c r="J12" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K12" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004783745163117525</v>
+        <v>0.004449494495613604</v>
       </c>
       <c r="M12" t="n">
-        <v>11.44924305580973</v>
+        <v>11.43162595365127</v>
       </c>
       <c r="N12" t="n">
-        <v>227.5695096265363</v>
+        <v>226.9076324964298</v>
       </c>
       <c r="O12" t="n">
-        <v>15.08540717470153</v>
+        <v>15.06345353816414</v>
       </c>
       <c r="P12" t="n">
-        <v>342.2446617693812</v>
+        <v>342.1864659459741</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32044,28 +32140,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2874749203347769</v>
+        <v>-0.2835155008292507</v>
       </c>
       <c r="J13" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K13" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01915908780408937</v>
+        <v>0.01878896031309807</v>
       </c>
       <c r="M13" t="n">
-        <v>11.11788187504209</v>
+        <v>11.09005326972365</v>
       </c>
       <c r="N13" t="n">
-        <v>220.7453999468203</v>
+        <v>219.9241640229984</v>
       </c>
       <c r="O13" t="n">
-        <v>14.85750315318224</v>
+        <v>14.82984032358401</v>
       </c>
       <c r="P13" t="n">
-        <v>343.2823716392216</v>
+        <v>343.2413184346286</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32122,28 +32218,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3344378353467756</v>
+        <v>-0.3415420118787819</v>
       </c>
       <c r="J14" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K14" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02677705296678279</v>
+        <v>0.02810486874989071</v>
       </c>
       <c r="M14" t="n">
-        <v>11.420287936324</v>
+        <v>11.40579560158963</v>
       </c>
       <c r="N14" t="n">
-        <v>212.9215332021473</v>
+        <v>212.221845586782</v>
       </c>
       <c r="O14" t="n">
-        <v>14.59183104350332</v>
+        <v>14.56783599532827</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7919109856449</v>
+        <v>344.8656900240078</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32200,28 +32296,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4374590524483867</v>
+        <v>-0.4385166438418917</v>
       </c>
       <c r="J15" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K15" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04107374120773577</v>
+        <v>0.04164068916900721</v>
       </c>
       <c r="M15" t="n">
-        <v>12.0137106808223</v>
+        <v>11.95995185132885</v>
       </c>
       <c r="N15" t="n">
-        <v>241.6422135666938</v>
+        <v>240.4523331729965</v>
       </c>
       <c r="O15" t="n">
-        <v>15.54484524100172</v>
+        <v>15.50652550292929</v>
       </c>
       <c r="P15" t="n">
-        <v>348.062719745393</v>
+        <v>348.0734907714148</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32278,28 +32374,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4920003509335478</v>
+        <v>-0.4810666597726408</v>
       </c>
       <c r="J16" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K16" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009099296065806395</v>
+        <v>0.008782844873413298</v>
       </c>
       <c r="M16" t="n">
-        <v>19.30453878166928</v>
+        <v>19.25541881823114</v>
       </c>
       <c r="N16" t="n">
-        <v>1326.529558901173</v>
+        <v>1320.647059442837</v>
       </c>
       <c r="O16" t="n">
-        <v>36.42155349379228</v>
+        <v>36.34070802065965</v>
       </c>
       <c r="P16" t="n">
-        <v>341.4650583980347</v>
+        <v>341.3485277270889</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32356,28 +32452,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4068659827443853</v>
+        <v>-0.3936569307872991</v>
       </c>
       <c r="J17" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00754245148046262</v>
+        <v>0.007125176476351247</v>
       </c>
       <c r="M17" t="n">
-        <v>17.88459130177516</v>
+        <v>17.85353324191466</v>
       </c>
       <c r="N17" t="n">
-        <v>1140.135696830736</v>
+        <v>1135.792140281133</v>
       </c>
       <c r="O17" t="n">
-        <v>33.76589546910812</v>
+        <v>33.70151540036639</v>
       </c>
       <c r="P17" t="n">
-        <v>337.3588541659913</v>
+        <v>337.2231736437366</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32434,28 +32530,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4767832360934722</v>
+        <v>-0.4655662164622968</v>
       </c>
       <c r="J18" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K18" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01532095904289654</v>
+        <v>0.01473923336150307</v>
       </c>
       <c r="M18" t="n">
-        <v>14.94785265948274</v>
+        <v>14.92407630282539</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6937154222429</v>
+        <v>778.8024810461842</v>
       </c>
       <c r="O18" t="n">
-        <v>27.9587860148155</v>
+        <v>27.90703282411414</v>
       </c>
       <c r="P18" t="n">
-        <v>340.0247017650692</v>
+        <v>339.9106726750006</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32512,28 +32608,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3923440005497048</v>
+        <v>-0.3732593378241069</v>
       </c>
       <c r="J19" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K19" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00980450072417427</v>
+        <v>0.008947534830455406</v>
       </c>
       <c r="M19" t="n">
-        <v>15.10610328906207</v>
+        <v>15.11009683743965</v>
       </c>
       <c r="N19" t="n">
-        <v>861.0178202675208</v>
+        <v>858.9164613378254</v>
       </c>
       <c r="O19" t="n">
-        <v>29.34310515721744</v>
+        <v>29.30727659366911</v>
       </c>
       <c r="P19" t="n">
-        <v>338.698869555309</v>
+        <v>338.5108163921518</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -32590,28 +32686,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2352379813695332</v>
+        <v>-0.22038741355778</v>
       </c>
       <c r="J20" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K20" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01361263295202386</v>
+        <v>0.01201505118292368</v>
       </c>
       <c r="M20" t="n">
-        <v>11.67326082601579</v>
+        <v>11.6983427427932</v>
       </c>
       <c r="N20" t="n">
-        <v>225.9395901404588</v>
+        <v>226.1120344927465</v>
       </c>
       <c r="O20" t="n">
-        <v>15.03128704204862</v>
+        <v>15.03702212849162</v>
       </c>
       <c r="P20" t="n">
-        <v>339.8815246588101</v>
+        <v>339.7359044939411</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32668,28 +32764,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1129408669942846</v>
+        <v>-0.1040082534875416</v>
       </c>
       <c r="J21" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K21" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003398303478928666</v>
+        <v>0.002901971293207573</v>
       </c>
       <c r="M21" t="n">
-        <v>10.94850694870096</v>
+        <v>10.94431378084309</v>
       </c>
       <c r="N21" t="n">
-        <v>206.5058823240901</v>
+        <v>206.0660967701885</v>
       </c>
       <c r="O21" t="n">
-        <v>14.37031253397399</v>
+        <v>14.35500249983219</v>
       </c>
       <c r="P21" t="n">
-        <v>337.6850238220815</v>
+        <v>337.5957430653255</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -32746,28 +32842,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.05848529237707657</v>
+        <v>-0.05298036156763091</v>
       </c>
       <c r="J22" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K22" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009749495024296007</v>
+        <v>0.0008064029091318092</v>
       </c>
       <c r="M22" t="n">
-        <v>10.72984295036893</v>
+        <v>10.7095165277022</v>
       </c>
       <c r="N22" t="n">
-        <v>192.1463683958148</v>
+        <v>191.493886372023</v>
       </c>
       <c r="O22" t="n">
-        <v>13.86168706888937</v>
+        <v>13.83813160697726</v>
       </c>
       <c r="P22" t="n">
-        <v>337.1728473486101</v>
+        <v>337.117873645498</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -32824,28 +32920,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1755764087086319</v>
+        <v>-0.1749602337559774</v>
       </c>
       <c r="J23" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K23" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007153787241974241</v>
+        <v>0.00716184873135961</v>
       </c>
       <c r="M23" t="n">
-        <v>11.78277612443279</v>
+        <v>11.73792374742575</v>
       </c>
       <c r="N23" t="n">
-        <v>237.5741224460034</v>
+        <v>236.6148624361671</v>
       </c>
       <c r="O23" t="n">
-        <v>15.41343966952229</v>
+        <v>15.38229054582467</v>
       </c>
       <c r="P23" t="n">
-        <v>337.5590621914443</v>
+        <v>337.5529943947805</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -32902,28 +32998,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2440259012425521</v>
+        <v>-0.2550571404442785</v>
       </c>
       <c r="J24" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K24" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009746271266935391</v>
+        <v>0.01070741848711199</v>
       </c>
       <c r="M24" t="n">
-        <v>14.38341416765004</v>
+        <v>14.37970454623533</v>
       </c>
       <c r="N24" t="n">
-        <v>329.1438776164434</v>
+        <v>328.4896113144254</v>
       </c>
       <c r="O24" t="n">
-        <v>18.14232282858078</v>
+        <v>18.12428236688077</v>
       </c>
       <c r="P24" t="n">
-        <v>337.8303172071065</v>
+        <v>337.9397673248924</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32980,28 +33076,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1706545264908562</v>
+        <v>-0.1791225178738671</v>
       </c>
       <c r="J25" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K25" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004847566159065342</v>
+        <v>0.005379185902352202</v>
       </c>
       <c r="M25" t="n">
-        <v>14.53336188783938</v>
+        <v>14.51444003739811</v>
       </c>
       <c r="N25" t="n">
-        <v>338.7737045268343</v>
+        <v>337.6678876005747</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40580627212061</v>
+        <v>18.37574182449717</v>
       </c>
       <c r="P25" t="n">
-        <v>341.4034937608108</v>
+        <v>341.485999917889</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33058,28 +33154,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09391692296867196</v>
+        <v>-0.09825692922104644</v>
       </c>
       <c r="J26" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K26" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00176064311837687</v>
+        <v>0.001941855735165587</v>
       </c>
       <c r="M26" t="n">
-        <v>12.87114046237136</v>
+        <v>12.84351644625065</v>
       </c>
       <c r="N26" t="n">
-        <v>274.674955795448</v>
+        <v>273.697191446898</v>
       </c>
       <c r="O26" t="n">
-        <v>16.57332060256628</v>
+        <v>16.54379616191212</v>
       </c>
       <c r="P26" t="n">
-        <v>341.6951646238956</v>
+        <v>341.7380716753915</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -33139,7 +33235,7 @@
         <v>-0.1354968068930589</v>
       </c>
       <c r="J27" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K27" t="n">
         <v>250</v>
@@ -33217,7 +33313,7 @@
         <v>-0.2463778290821915</v>
       </c>
       <c r="J28" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K28" t="n">
         <v>236</v>
@@ -33295,7 +33391,7 @@
         <v>-0.3114906755062652</v>
       </c>
       <c r="J29" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K29" t="n">
         <v>240</v>
@@ -33373,7 +33469,7 @@
         <v>-0.5554845804116157</v>
       </c>
       <c r="J30" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K30" t="n">
         <v>235</v>
@@ -33451,7 +33547,7 @@
         <v>-0.5215140281883321</v>
       </c>
       <c r="J31" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K31" t="n">
         <v>222</v>
@@ -33507,7 +33603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF320"/>
+  <dimension ref="A1:AF321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74331,6 +74427,136 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-37.909590820686475,174.77214851165172</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-37.90898413678365,174.77162278619116</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-37.908309921524605,174.77134552804603</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-37.90760633515709,174.77117632144572</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-37.9069241951219,174.7709281776585</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-37.90626904436151,174.77058070170142</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-37.90561420875001,174.77023204356306</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-37.90493720786467,174.76996492199578</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-37.90424859528895,174.7697405037612</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-37.90353872424465,174.76959428408216</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-37.90288728735351,174.76923303018125</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-37.90222716791184,174.76890370156443</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>-37.90155751977088,174.7686094116543</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-37.90088414331644,174.76833968673074</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>-37.900229733865956,174.76799204586735</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>-37.89955077562033,174.76773425792587</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>-37.89885747460832,174.76753608593722</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>-37.898168741111576,174.767318869655</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>-37.89746581207666,174.767160610478</t>
+        </is>
+      </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>-37.89674382977464,174.76708003934868</t>
+        </is>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>-37.89608635588178,174.7667317990916</t>
+        </is>
+      </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>-37.89542329322225,174.76640806253334</t>
+        </is>
+      </c>
+      <c r="AA321" t="inlineStr"/>
+      <c r="AB321" t="inlineStr"/>
+      <c r="AC321" t="inlineStr"/>
+      <c r="AD321" t="inlineStr"/>
+      <c r="AE321" t="inlineStr"/>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF321"/>
+  <dimension ref="A1:AF322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27710,6 +27710,106 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>362.8327272727273</v>
+      </c>
+      <c r="C322" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="D322" t="n">
+        <v>357.83</v>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="n">
+        <v>349.9671428571428</v>
+      </c>
+      <c r="G322" t="n">
+        <v>366.1233333333333</v>
+      </c>
+      <c r="H322" t="n">
+        <v>362.3571428571428</v>
+      </c>
+      <c r="I322" t="n">
+        <v>356.8</v>
+      </c>
+      <c r="J322" t="n">
+        <v>352.31</v>
+      </c>
+      <c r="K322" t="n">
+        <v>345.9527272727273</v>
+      </c>
+      <c r="L322" t="n">
+        <v>342.42</v>
+      </c>
+      <c r="M322" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="N322" t="n">
+        <v>335.95</v>
+      </c>
+      <c r="O322" t="n">
+        <v>343.2722222222222</v>
+      </c>
+      <c r="P322" t="n">
+        <v>350.5171428571429</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>351.33</v>
+      </c>
+      <c r="R322" t="n">
+        <v>339.32</v>
+      </c>
+      <c r="S322" t="n">
+        <v>348.5222222222222</v>
+      </c>
+      <c r="T322" t="n">
+        <v>343.79</v>
+      </c>
+      <c r="U322" t="n">
+        <v>342.94</v>
+      </c>
+      <c r="V322" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="W322" t="n">
+        <v>339.6722222222222</v>
+      </c>
+      <c r="X322" t="n">
+        <v>310.47</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>312.2133333333333</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>324.2322222222222</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>328.69</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>314.28</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>333.0971428571428</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>342.7571428571428</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>345.26</v>
+      </c>
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27721,7 +27821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31109,6 +31209,16 @@
       </c>
       <c r="B338" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -33603,7 +33713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF321"/>
+  <dimension ref="A1:AF322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74557,6 +74667,164 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-37.91171764967194,174.77259672509996</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-37.911061218594554,174.77225411784224</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-37.910356785853665,174.77208811851818</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-37.90898753632794,174.77161027711128</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-37.908361626994,174.7711552705896</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-37.907677469922206,174.77091457248855</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-37.906988071184934,174.77069313886318</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-37.90630178611154,174.77046022513665</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-37.90561003632898,174.77024739637503</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-37.9049265376869,174.770004183791</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-37.90423824672499,174.76977858199328</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-37.90356126297676,174.76951135171595</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-37.902909478343695,174.76915137726445</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-37.902257461261094,174.76879223554604</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>-37.901586635271414,174.76850227976496</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>-37.90088115077615,174.76835137250245</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>-37.90022740889742,174.7680017182656</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>-37.899534257941674,174.76780303296167</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>-37.89885122824096,174.76756209399096</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>-37.89815632684272,174.76737055884465</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>-37.897481032172536,174.7670972685784</t>
+        </is>
+      </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>-37.8967234690696,174.76716445098418</t>
+        </is>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>-37.89604726463768,174.76689332326552</t>
+        </is>
+      </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>-37.89539847836421,174.76651059719998</t>
+        </is>
+      </c>
+      <c r="AA322" t="inlineStr">
+        <is>
+          <t>-37.89472978614975,174.76621009603858</t>
+        </is>
+      </c>
+      <c r="AB322" t="inlineStr">
+        <is>
+          <t>-37.89401143197909,174.76611477019165</t>
+        </is>
+      </c>
+      <c r="AC322" t="inlineStr">
+        <is>
+          <t>-37.89338051740419,174.76565812175016</t>
+        </is>
+      </c>
+      <c r="AD322" t="inlineStr">
+        <is>
+          <t>-37.892725496660525,174.76530105280906</t>
+        </is>
+      </c>
+      <c r="AE322" t="inlineStr">
+        <is>
+          <t>-37.89205163385379,174.76502181289612</t>
+        </is>
+      </c>
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -31392,28 +31392,28 @@
         <v>0.0603</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04694634853570018</v>
+        <v>-0.03926320793556801</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004373926535425898</v>
+        <v>0.0003079435152115728</v>
       </c>
       <c r="M2" t="n">
-        <v>13.12120147910253</v>
+        <v>13.11080118348849</v>
       </c>
       <c r="N2" t="n">
-        <v>270.2331078167441</v>
+        <v>269.5041339143003</v>
       </c>
       <c r="O2" t="n">
-        <v>16.43876843978113</v>
+        <v>16.41658106654063</v>
       </c>
       <c r="P2" t="n">
-        <v>354.1832066426995</v>
+        <v>354.103792760699</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31470,28 +31470,28 @@
         <v>0.0583</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1109234222964467</v>
+        <v>-0.09675502603989085</v>
       </c>
       <c r="J3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003306534082077039</v>
+        <v>0.002521306394637102</v>
       </c>
       <c r="M3" t="n">
-        <v>10.75131710516039</v>
+        <v>10.77732857203856</v>
       </c>
       <c r="N3" t="n">
-        <v>198.2834907137817</v>
+        <v>198.7931330947025</v>
       </c>
       <c r="O3" t="n">
-        <v>14.08131708022306</v>
+        <v>14.09940187010437</v>
       </c>
       <c r="P3" t="n">
-        <v>353.3368280435196</v>
+        <v>353.1915017482032</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31548,28 +31548,28 @@
         <v>0.0557</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2074215617977597</v>
+        <v>-0.1977102999799663</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01034697913200955</v>
+        <v>0.009468042577487679</v>
       </c>
       <c r="M4" t="n">
-        <v>11.41715102760177</v>
+        <v>11.41758898245679</v>
       </c>
       <c r="N4" t="n">
-        <v>219.2012233838408</v>
+        <v>218.8485453746867</v>
       </c>
       <c r="O4" t="n">
-        <v>14.80544573404802</v>
+        <v>14.79353052434363</v>
       </c>
       <c r="P4" t="n">
-        <v>351.4617153109602</v>
+        <v>351.3635827129845</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31629,7 +31629,7 @@
         <v>-0.5474045245685214</v>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
         <v>194</v>
@@ -31704,28 +31704,28 @@
         <v>0.0388</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7807803036892579</v>
+        <v>-0.7645408893865423</v>
       </c>
       <c r="J6" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06158536092548883</v>
+        <v>0.05956289243974133</v>
       </c>
       <c r="M6" t="n">
-        <v>18.32163751848825</v>
+        <v>18.31424710370691</v>
       </c>
       <c r="N6" t="n">
-        <v>532.7272629066575</v>
+        <v>531.7088167566181</v>
       </c>
       <c r="O6" t="n">
-        <v>23.08088522796857</v>
+        <v>23.0588121280481</v>
       </c>
       <c r="P6" t="n">
-        <v>351.9040595370879</v>
+        <v>351.7458343798716</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31782,28 +31782,28 @@
         <v>0.0333</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5060803296485791</v>
+        <v>-0.4833509969440818</v>
       </c>
       <c r="J7" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03015166656603707</v>
+        <v>0.02760974866972832</v>
       </c>
       <c r="M7" t="n">
-        <v>16.54313618069851</v>
+        <v>16.5825419271831</v>
       </c>
       <c r="N7" t="n">
-        <v>469.1691345845028</v>
+        <v>470.4359032282993</v>
       </c>
       <c r="O7" t="n">
-        <v>21.66031243044529</v>
+        <v>21.68953441704776</v>
       </c>
       <c r="P7" t="n">
-        <v>351.7131423498544</v>
+        <v>351.4877519337087</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31860,28 +31860,28 @@
         <v>0.0431</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3530134178301373</v>
+        <v>-0.3355003653397368</v>
       </c>
       <c r="J8" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01744486745319029</v>
+        <v>0.01581811761703678</v>
       </c>
       <c r="M8" t="n">
-        <v>15.40590073101603</v>
+        <v>15.43731728641327</v>
       </c>
       <c r="N8" t="n">
-        <v>376.4608962163778</v>
+        <v>376.9959301392748</v>
       </c>
       <c r="O8" t="n">
-        <v>19.40260024368842</v>
+        <v>19.41638303441902</v>
       </c>
       <c r="P8" t="n">
-        <v>348.8377892260993</v>
+        <v>348.6565577491484</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31938,28 +31938,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1673932483196345</v>
+        <v>-0.1537835551470337</v>
       </c>
       <c r="J9" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K9" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003866917120640689</v>
+        <v>0.003280204127232955</v>
       </c>
       <c r="M9" t="n">
-        <v>15.99989560492509</v>
+        <v>16.00173263652002</v>
       </c>
       <c r="N9" t="n">
-        <v>386.5447320156796</v>
+        <v>386.2369899380836</v>
       </c>
       <c r="O9" t="n">
-        <v>19.66074088165753</v>
+        <v>19.65291301405681</v>
       </c>
       <c r="P9" t="n">
-        <v>343.3547880700664</v>
+        <v>343.2141177108543</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32016,28 +32016,28 @@
         <v>0.0599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2314612087984785</v>
+        <v>-0.221896050686374</v>
       </c>
       <c r="J10" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K10" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01152925004130578</v>
+        <v>0.01066349168118097</v>
       </c>
       <c r="M10" t="n">
-        <v>12.29574810815981</v>
+        <v>12.29297742690879</v>
       </c>
       <c r="N10" t="n">
-        <v>244.5182886860105</v>
+        <v>244.1143569963516</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6370805678685</v>
+        <v>15.62415940127185</v>
       </c>
       <c r="P10" t="n">
-        <v>346.0616284522311</v>
+        <v>345.9626451432273</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32094,28 +32094,28 @@
         <v>0.0629</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1459941753878197</v>
+        <v>-0.1418048059141928</v>
       </c>
       <c r="J11" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00457156378600676</v>
+        <v>0.004345715400375649</v>
       </c>
       <c r="M11" t="n">
-        <v>12.64202896766621</v>
+        <v>12.61063288391716</v>
       </c>
       <c r="N11" t="n">
-        <v>250.2859711934689</v>
+        <v>249.385350520192</v>
       </c>
       <c r="O11" t="n">
-        <v>15.82042891938992</v>
+        <v>15.79193941604995</v>
       </c>
       <c r="P11" t="n">
-        <v>344.2337761764005</v>
+        <v>344.190814762024</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32172,28 +32172,28 @@
         <v>0.0599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1388095142159592</v>
+        <v>-0.1359882085434077</v>
       </c>
       <c r="J12" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K12" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004449494495613604</v>
+        <v>0.004302652732931733</v>
       </c>
       <c r="M12" t="n">
-        <v>11.43162595365127</v>
+        <v>11.40087901707329</v>
       </c>
       <c r="N12" t="n">
-        <v>226.9076324964298</v>
+        <v>226.0899873166145</v>
       </c>
       <c r="O12" t="n">
-        <v>15.06345353816414</v>
+        <v>15.03628901413559</v>
       </c>
       <c r="P12" t="n">
-        <v>342.1864659459741</v>
+        <v>342.1572233534376</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32250,28 +32250,28 @@
         <v>0.0543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2835155008292507</v>
+        <v>-0.2824679576071427</v>
       </c>
       <c r="J13" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K13" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01878896031309807</v>
+        <v>0.0188037034222599</v>
       </c>
       <c r="M13" t="n">
-        <v>11.09005326972365</v>
+        <v>11.04903971622345</v>
       </c>
       <c r="N13" t="n">
-        <v>219.9241640229984</v>
+        <v>219.0185970016706</v>
       </c>
       <c r="O13" t="n">
-        <v>14.82984032358401</v>
+        <v>14.79927690806786</v>
       </c>
       <c r="P13" t="n">
-        <v>343.2413184346286</v>
+        <v>343.230433865487</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32328,28 +32328,28 @@
         <v>0.0541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3415420118787819</v>
+        <v>-0.341653281777539</v>
       </c>
       <c r="J14" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K14" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02810486874989071</v>
+        <v>0.02836986464237834</v>
       </c>
       <c r="M14" t="n">
-        <v>11.40579560158963</v>
+        <v>11.35359054288572</v>
       </c>
       <c r="N14" t="n">
-        <v>212.221845586782</v>
+        <v>211.2394093552739</v>
       </c>
       <c r="O14" t="n">
-        <v>14.56783599532827</v>
+        <v>14.53407751992791</v>
       </c>
       <c r="P14" t="n">
-        <v>344.8656900240078</v>
+        <v>344.8668481009703</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32406,28 +32406,28 @@
         <v>0.0486</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4385166438418917</v>
+        <v>-0.4325737072578548</v>
       </c>
       <c r="J15" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K15" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04164068916900721</v>
+        <v>0.04089894581350662</v>
       </c>
       <c r="M15" t="n">
-        <v>11.95995185132885</v>
+        <v>11.93218975348829</v>
       </c>
       <c r="N15" t="n">
-        <v>240.4523331729965</v>
+        <v>239.4720154666003</v>
       </c>
       <c r="O15" t="n">
-        <v>15.50652550292929</v>
+        <v>15.47488337489496</v>
       </c>
       <c r="P15" t="n">
-        <v>348.0734907714148</v>
+        <v>348.0128285751304</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32484,28 +32484,28 @@
         <v>0.0393</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4810666597726408</v>
+        <v>-0.4604795378584253</v>
       </c>
       <c r="J16" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K16" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008782844873413298</v>
+        <v>0.008116491658464842</v>
       </c>
       <c r="M16" t="n">
-        <v>19.25541881823114</v>
+        <v>19.24674724349881</v>
       </c>
       <c r="N16" t="n">
-        <v>1320.647059442837</v>
+        <v>1316.437517305016</v>
       </c>
       <c r="O16" t="n">
-        <v>36.34070802065965</v>
+        <v>36.28274407077028</v>
       </c>
       <c r="P16" t="n">
-        <v>341.3485277270889</v>
+        <v>341.1286531679721</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32562,28 +32562,28 @@
         <v>0.0442</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3936569307872991</v>
+        <v>-0.3717390349587245</v>
       </c>
       <c r="J17" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007125176476351247</v>
+        <v>0.006403461901416274</v>
       </c>
       <c r="M17" t="n">
-        <v>17.85353324191466</v>
+        <v>17.8584855587573</v>
       </c>
       <c r="N17" t="n">
-        <v>1135.792140281133</v>
+        <v>1133.215658752944</v>
       </c>
       <c r="O17" t="n">
-        <v>33.70151540036639</v>
+        <v>33.66326868788805</v>
       </c>
       <c r="P17" t="n">
-        <v>337.2231736437366</v>
+        <v>336.9975662389852</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32640,28 +32640,28 @@
         <v>0.0449</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4655662164622968</v>
+        <v>-0.4555414782950465</v>
       </c>
       <c r="J18" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K18" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01473923336150307</v>
+        <v>0.01423757984670471</v>
       </c>
       <c r="M18" t="n">
-        <v>14.92407630282539</v>
+        <v>14.89668833805938</v>
       </c>
       <c r="N18" t="n">
-        <v>778.8024810461842</v>
+        <v>775.8033011503094</v>
       </c>
       <c r="O18" t="n">
-        <v>27.90703282411414</v>
+        <v>27.85324579201335</v>
       </c>
       <c r="P18" t="n">
-        <v>339.9106726750006</v>
+        <v>339.8085431028313</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32718,28 +32718,28 @@
         <v>0.0541</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3732593378241069</v>
+        <v>-0.3554389095995545</v>
       </c>
       <c r="J19" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K19" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008947534830455406</v>
+        <v>0.008181475833144325</v>
       </c>
       <c r="M19" t="n">
-        <v>15.11009683743965</v>
+        <v>15.11109753746031</v>
       </c>
       <c r="N19" t="n">
-        <v>858.9164613378254</v>
+        <v>856.6106268124074</v>
       </c>
       <c r="O19" t="n">
-        <v>29.30727659366911</v>
+        <v>29.26791121368943</v>
       </c>
       <c r="P19" t="n">
-        <v>338.5108163921518</v>
+        <v>338.3348336121499</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -32796,28 +32796,28 @@
         <v>0.0598</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.22038741355778</v>
+        <v>-0.2116021938823932</v>
       </c>
       <c r="J20" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K20" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01201505118292368</v>
+        <v>0.01116951124511101</v>
       </c>
       <c r="M20" t="n">
-        <v>11.6983427427932</v>
+        <v>11.68941873286125</v>
       </c>
       <c r="N20" t="n">
-        <v>226.1120344927465</v>
+        <v>225.4606750735979</v>
       </c>
       <c r="O20" t="n">
-        <v>15.03702212849162</v>
+        <v>15.01534798376641</v>
       </c>
       <c r="P20" t="n">
-        <v>339.7359044939411</v>
+        <v>339.6495620688425</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32874,28 +32874,28 @@
         <v>0.0578</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1040082534875416</v>
+        <v>-0.09727597514757132</v>
       </c>
       <c r="J21" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K21" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002901971293207573</v>
+        <v>0.00255804861260156</v>
       </c>
       <c r="M21" t="n">
-        <v>10.94431378084309</v>
+        <v>10.92965790220811</v>
       </c>
       <c r="N21" t="n">
-        <v>206.0660967701885</v>
+        <v>205.4209449316156</v>
       </c>
       <c r="O21" t="n">
-        <v>14.35500249983219</v>
+        <v>14.33251355944294</v>
       </c>
       <c r="P21" t="n">
-        <v>337.5957430653255</v>
+        <v>337.5283019174596</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -32952,28 +32952,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.05298036156763091</v>
+        <v>-0.05150250825756299</v>
       </c>
       <c r="J22" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K22" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008064029091318092</v>
+        <v>0.0007686372482689219</v>
       </c>
       <c r="M22" t="n">
-        <v>10.7095165277022</v>
+        <v>10.66986415477172</v>
       </c>
       <c r="N22" t="n">
-        <v>191.493886372023</v>
+        <v>190.6715659489827</v>
       </c>
       <c r="O22" t="n">
-        <v>13.83813160697726</v>
+        <v>13.80838752168343</v>
       </c>
       <c r="P22" t="n">
-        <v>337.117873645498</v>
+        <v>337.1030827404473</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33030,28 +33030,28 @@
         <v>0.0539</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1749602337559774</v>
+        <v>-0.169919219228083</v>
       </c>
       <c r="J23" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K23" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00716184873135961</v>
+        <v>0.006807496892420328</v>
       </c>
       <c r="M23" t="n">
-        <v>11.73792374742575</v>
+        <v>11.71371539983017</v>
       </c>
       <c r="N23" t="n">
-        <v>236.6148624361671</v>
+        <v>235.8354510001062</v>
       </c>
       <c r="O23" t="n">
-        <v>15.38229054582467</v>
+        <v>15.35693494809775</v>
       </c>
       <c r="P23" t="n">
-        <v>337.5529943947805</v>
+        <v>337.5032431111165</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33108,28 +33108,28 @@
         <v>0.0467</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2550571404442785</v>
+        <v>-0.2722028877133711</v>
       </c>
       <c r="J24" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K24" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01070741848711199</v>
+        <v>0.0122160298766143</v>
       </c>
       <c r="M24" t="n">
-        <v>14.37970454623533</v>
+        <v>14.40740215142608</v>
       </c>
       <c r="N24" t="n">
-        <v>328.4896113144254</v>
+        <v>328.9256135098061</v>
       </c>
       <c r="O24" t="n">
-        <v>18.12428236688077</v>
+        <v>18.13630650131956</v>
       </c>
       <c r="P24" t="n">
-        <v>337.9397673248924</v>
+        <v>338.110246500654</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33186,28 +33186,28 @@
         <v>0.0347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1791225178738671</v>
+        <v>-0.1999103310350581</v>
       </c>
       <c r="J25" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K25" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005379185902352202</v>
+        <v>0.006697042257197916</v>
       </c>
       <c r="M25" t="n">
-        <v>14.51444003739811</v>
+        <v>14.56486503677659</v>
       </c>
       <c r="N25" t="n">
-        <v>337.6678876005747</v>
+        <v>338.8660537816409</v>
       </c>
       <c r="O25" t="n">
-        <v>18.37574182449717</v>
+        <v>18.40831480015596</v>
       </c>
       <c r="P25" t="n">
-        <v>341.485999917889</v>
+        <v>341.6890048568196</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33264,28 +33264,28 @@
         <v>0.0527</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09825692922104644</v>
+        <v>-0.1097275795436246</v>
       </c>
       <c r="J26" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K26" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001941855735165587</v>
+        <v>0.002432511771405022</v>
       </c>
       <c r="M26" t="n">
-        <v>12.84351644625065</v>
+        <v>12.85573003753843</v>
       </c>
       <c r="N26" t="n">
-        <v>273.697191446898</v>
+        <v>273.4887834229954</v>
       </c>
       <c r="O26" t="n">
-        <v>16.54379616191212</v>
+        <v>16.53749628640912</v>
       </c>
       <c r="P26" t="n">
-        <v>341.7380716753915</v>
+        <v>341.8517206151761</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -33342,28 +33342,28 @@
         <v>0.0454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1354968068930589</v>
+        <v>-0.1436364248978709</v>
       </c>
       <c r="J27" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K27" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00357483682637505</v>
+        <v>0.004041407213788872</v>
       </c>
       <c r="M27" t="n">
-        <v>12.77412734923975</v>
+        <v>12.76344816527252</v>
       </c>
       <c r="N27" t="n">
-        <v>283.6610136283718</v>
+        <v>282.9856669989445</v>
       </c>
       <c r="O27" t="n">
-        <v>16.84223897314047</v>
+        <v>16.82217783162883</v>
       </c>
       <c r="P27" t="n">
-        <v>342.9258334574625</v>
+        <v>343.0063798035405</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -33420,28 +33420,28 @@
         <v>0.043</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2463778290821915</v>
+        <v>-0.2593760676661598</v>
       </c>
       <c r="J28" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K28" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01355996552752614</v>
+        <v>0.01506548088758641</v>
       </c>
       <c r="M28" t="n">
-        <v>12.53722722304907</v>
+        <v>12.55511921034871</v>
       </c>
       <c r="N28" t="n">
-        <v>246.2297663541328</v>
+        <v>246.2994906654914</v>
       </c>
       <c r="O28" t="n">
-        <v>15.69171011566721</v>
+        <v>15.69393165097553</v>
       </c>
       <c r="P28" t="n">
-        <v>336.9339028255619</v>
+        <v>337.0621366277287</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -33498,28 +33498,28 @@
         <v>0.0371</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3114906755062652</v>
+        <v>-0.3188653698932097</v>
       </c>
       <c r="J29" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K29" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0187400928999587</v>
+        <v>0.01975421670021371</v>
       </c>
       <c r="M29" t="n">
-        <v>13.47621733767985</v>
+        <v>13.46294734956929</v>
       </c>
       <c r="N29" t="n">
-        <v>284.1084319575635</v>
+        <v>283.2986317757115</v>
       </c>
       <c r="O29" t="n">
-        <v>16.85551636579442</v>
+        <v>16.83147740917925</v>
       </c>
       <c r="P29" t="n">
-        <v>350.6034001227054</v>
+        <v>350.67626326511</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -33576,28 +33576,28 @@
         <v>0.0381</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5554845804116157</v>
+        <v>-0.5545442377677808</v>
       </c>
       <c r="J30" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K30" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0528421106551451</v>
+        <v>0.05307703016886745</v>
       </c>
       <c r="M30" t="n">
-        <v>14.01724560339914</v>
+        <v>13.96214158667633</v>
       </c>
       <c r="N30" t="n">
-        <v>306.6435951525412</v>
+        <v>305.3503149443235</v>
       </c>
       <c r="O30" t="n">
-        <v>17.51124196487905</v>
+        <v>17.47427580600477</v>
       </c>
       <c r="P30" t="n">
-        <v>355.8499798908566</v>
+        <v>355.8405315257269</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -33654,28 +33654,28 @@
         <v>0.0449</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5215140281883321</v>
+        <v>-0.5176989606996204</v>
       </c>
       <c r="J31" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K31" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05959046001042623</v>
+        <v>0.05923963337951377</v>
       </c>
       <c r="M31" t="n">
-        <v>12.40610275645451</v>
+        <v>12.36960170503801</v>
       </c>
       <c r="N31" t="n">
-        <v>236.9726024634264</v>
+        <v>236.0013136873649</v>
       </c>
       <c r="O31" t="n">
-        <v>15.39391446200174</v>
+        <v>15.36233425255956</v>
       </c>
       <c r="P31" t="n">
-        <v>354.1375979361994</v>
+        <v>354.0993971834326</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">

--- a/data/nzd0232/nzd0232.xlsx
+++ b/data/nzd0232/nzd0232.xlsx
@@ -31383,13 +31383,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0475</v>
+        <v>0.033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0603</v>
+        <v>0.0444</v>
       </c>
       <c r="I2" t="n">
         <v>-0.03929847996727969</v>
@@ -31461,13 +31461,13 @@
         <v>0.9655172311453876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0479</v>
+        <v>0.0468</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0583</v>
+        <v>0.0731</v>
       </c>
       <c r="I3" t="n">
         <v>-0.09675502603989113</v>
@@ -31539,13 +31539,13 @@
         <v>0.9310344622910802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0435</v>
+        <v>0.0393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0557</v>
+        <v>0.0461</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1977102999799668</v>
@@ -31620,10 +31620,10 @@
         <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0335</v>
+        <v>0.0327</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0404</v>
+        <v>0.0359</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5473926136388305</v>
@@ -31695,13 +31695,13 @@
         <v>0.8620689245817582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0329</v>
+        <v>0.0233</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0388</v>
+        <v>0.0262</v>
       </c>
       <c r="I6" t="n">
         <v>-0.7645643311785025</v>
@@ -31776,10 +31776,10 @@
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0293</v>
+        <v>0.0256</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0333</v>
+        <v>0.0336</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4833561777051961</v>
@@ -31851,13 +31851,13 @@
         <v>0.7931033868725335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.032</v>
+        <v>0.0265</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0431</v>
+        <v>0.0319</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3354826129525075</v>
@@ -31929,13 +31929,13 @@
         <v>0.7586206180175188</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0371</v>
+        <v>0.0333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0488</v>
+        <v>0.0401</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1537835551470337</v>
@@ -32007,13 +32007,13 @@
         <v>0.7241378491636137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0449</v>
+        <v>0.0399</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0599</v>
+        <v>0.0477</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2218960506863743</v>
@@ -32085,13 +32085,13 @@
         <v>0.6896550803085991</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0464</v>
+        <v>0.0433</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0629</v>
+        <v>0.0472</v>
       </c>
       <c r="I11" t="n">
         <v>-0.141816599026852</v>
@@ -32169,7 +32169,7 @@
         <v>0.0465</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0599</v>
+        <v>0.0608</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1359882085434079</v>
@@ -32241,13 +32241,13 @@
         <v>0.6206895425993744</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0444</v>
+        <v>0.0556</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0543</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>-0.282467957607143</v>
@@ -32319,13 +32319,13 @@
         <v>0.5862067737450669</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0431</v>
+        <v>0.0306</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0541</v>
+        <v>0.0411</v>
       </c>
       <c r="I14" t="n">
         <v>-0.3416532817775391</v>
@@ -32397,13 +32397,13 @@
         <v>0.5517240048904546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0383</v>
+        <v>0.0297</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0486</v>
+        <v>0.0471</v>
       </c>
       <c r="I15" t="n">
         <v>-0.432553348620009</v>
@@ -32478,10 +32478,10 @@
         <v>0.035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0299</v>
+        <v>0.028</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0393</v>
+        <v>0.0457</v>
       </c>
       <c r="I16" t="n">
         <v>-0.4604910320483712</v>
@@ -32556,10 +32556,10 @@
         <v>0.04</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0356</v>
+        <v>0.0298</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0442</v>
+        <v>0.0561</v>
       </c>
       <c r="I17" t="n">
         <v>-0.3717390349587245</v>
@@ -32631,13 +32631,13 @@
         <v>0.4482756983266174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G18" t="n">
-        <v>0.035</v>
+        <v>0.0289</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0449</v>
+        <v>0.0452</v>
       </c>
       <c r="I18" t="n">
         <v>-0.4555414782950465</v>
@@ -32709,13 +32709,13 @@
         <v>0.4137932178747148</v>
       </c>
       <c r="F19" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0385</v>
+        <v>0.0321</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0541</v>
+        <v>0.0505</v>
       </c>
       <c r="I19" t="n">
         <v>-0.3554230037383969</v>
@@ -32787,13 +32787,13 @@
         <v>0.3793104490203085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0437</v>
+        <v>0.0291</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0598</v>
+        <v>0.0444</v>
       </c>
       <c r="I20" t="n">
         <v>-0.2116021938823933</v>
@@ -32865,13 +32865,13 @@
         <v>0.3448276801655444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G21" t="n">
-        <v>0.047</v>
+        <v>0.0327</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0578</v>
+        <v>0.0478</v>
       </c>
       <c r="I21" t="n">
         <v>-0.0972759751475713</v>
@@ -32943,13 +32943,13 @@
         <v>0.310344911311138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0468</v>
+        <v>0.0394</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0581</v>
+        <v>0.0583</v>
       </c>
       <c r="I22" t="n">
         <v>-0.05150250825756292</v>
@@ -33021,13 +33021,13 @@
         <v>0.2758621424567317</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0423</v>
+        <v>0.0459</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0539</v>
+        <v>0.0607</v>
       </c>
       <c r="I23" t="n">
         <v>-0.1699076198478478</v>
@@ -33099,13 +33099,13 @@
         <v>0.2413793819811147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0383</v>
+        <v>0.0343</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0467</v>
+        <v>0.0413</v>
       </c>
       <c r="I24" t="n">
         <v>-0.2722028877133711</v>
@@ -33180,10 +33180,10 @@
         <v>0.03</v>
       </c>
       <c r="G25" t="n">
-        <v>0.029</v>
+        <v>0.0297</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0347</v>
+        <v>0.0316</v>
       </c>
       <c r="I25" t="n">
         <v>-0.1998922874046172</v>
@@ -33255,13 +33255,13 @@
         <v>0.1724138442723427</v>
       </c>
       <c r="F26" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0411</v>
+        <v>0.0368</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0527</v>
+        <v>0.0447</v>
       </c>
       <c r="I26" t="n">
         <v>-0.1097070151403066</v>
@@ -33336,10 +33336,10 @@
         <v>0.04</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0375</v>
+        <v>0.0387</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0454</v>
+        <v>0.0459</v>
       </c>
       <c r="I27" t="n">
         <v>-0.1436364248978709</v>
@@ -33414,10 +33414,10 @@
         <v>0.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0349</v>
+        <v>0.0387</v>
       </c>
       <c r="H28" t="n">
-        <v>0.043</v>
+        <v>0.0462</v>
       </c>
       <c r="I28" t="n">
         <v>-0.2593760676661598</v>
@@ -33489,13 +33489,13 @@
         <v>0.06896553770918462</v>
       </c>
       <c r="F29" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0298</v>
+        <v>0.0379</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0371</v>
+        <v>0.0423</v>
       </c>
       <c r="I29" t="n">
         <v>-0.3188566597058433</v>
@@ -33567,13 +33567,13 @@
         <v>0.03448276885474643</v>
       </c>
       <c r="F30" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>0.032</v>
+        <v>0.0384</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0381</v>
+        <v>0.0413</v>
       </c>
       <c r="I30" t="n">
         <v>-0.5545424049217103</v>
@@ -33645,13 +33645,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0358</v>
+        <v>0.0433</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0449</v>
+        <v>0.0523</v>
       </c>
       <c r="I31" t="n">
         <v>-0.5176989606996204</v>
